--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE251"/>
+  <dimension ref="A1:AE254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23037,6 +23037,285 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>398.83</v>
+      </c>
+      <c r="C252" t="n">
+        <v>395.1166666666667</v>
+      </c>
+      <c r="D252" t="n">
+        <v>382.5133333333333</v>
+      </c>
+      <c r="E252" t="n">
+        <v>366.88</v>
+      </c>
+      <c r="F252" t="n">
+        <v>366.66</v>
+      </c>
+      <c r="G252" t="n">
+        <v>371.5514285714286</v>
+      </c>
+      <c r="H252" t="n">
+        <v>375.6</v>
+      </c>
+      <c r="I252" t="n">
+        <v>383.39</v>
+      </c>
+      <c r="J252" t="n">
+        <v>384.14</v>
+      </c>
+      <c r="K252" t="n">
+        <v>386.7414285714286</v>
+      </c>
+      <c r="L252" t="n">
+        <v>390.8414285714285</v>
+      </c>
+      <c r="M252" t="n">
+        <v>393.6976923076923</v>
+      </c>
+      <c r="N252" t="n">
+        <v>392.3176923076923</v>
+      </c>
+      <c r="O252" t="n">
+        <v>388.6776923076923</v>
+      </c>
+      <c r="P252" t="n">
+        <v>396.2576923076923</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>394.6514285714285</v>
+      </c>
+      <c r="R252" t="n">
+        <v>393.87</v>
+      </c>
+      <c r="S252" t="n">
+        <v>391.49</v>
+      </c>
+      <c r="T252" t="n">
+        <v>384</v>
+      </c>
+      <c r="U252" t="n">
+        <v>379.8414285714285</v>
+      </c>
+      <c r="V252" t="n">
+        <v>381.7014285714286</v>
+      </c>
+      <c r="W252" t="n">
+        <v>383.1376923076923</v>
+      </c>
+      <c r="X252" t="n">
+        <v>386.9776923076923</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>387.4476923076923</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>385.7514285714286</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>384.6314285714286</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>388.7414285714286</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>402.0476923076923</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>404.06</v>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>403.92</v>
+      </c>
+      <c r="C253" t="n">
+        <v>412.9044444444445</v>
+      </c>
+      <c r="D253" t="n">
+        <v>393.8022222222222</v>
+      </c>
+      <c r="E253" t="n">
+        <v>382.2233333333333</v>
+      </c>
+      <c r="F253" t="n">
+        <v>380.365</v>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="n">
+        <v>401.6</v>
+      </c>
+      <c r="P253" t="n">
+        <v>404.64</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>402.9857142857143</v>
+      </c>
+      <c r="R253" t="n">
+        <v>398.7266666666667</v>
+      </c>
+      <c r="S253" t="n">
+        <v>399.2666666666667</v>
+      </c>
+      <c r="T253" t="n">
+        <v>393.9866666666667</v>
+      </c>
+      <c r="U253" t="n">
+        <v>394.3857142857143</v>
+      </c>
+      <c r="V253" t="n">
+        <v>391.5457142857143</v>
+      </c>
+      <c r="W253" t="n">
+        <v>387.41</v>
+      </c>
+      <c r="X253" t="n">
+        <v>392.11</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>390.91</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>389.9157142857143</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>395.3257142857143</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>401.5057142857143</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>412.83</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>408.2633333333333</v>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="n">
+        <v>385.4311111111111</v>
+      </c>
+      <c r="D254" t="n">
+        <v>369.5955555555556</v>
+      </c>
+      <c r="E254" t="n">
+        <v>363.4833333333333</v>
+      </c>
+      <c r="F254" t="n">
+        <v>358.2</v>
+      </c>
+      <c r="G254" t="n">
+        <v>362.0757142857143</v>
+      </c>
+      <c r="H254" t="n">
+        <v>365.9566666666666</v>
+      </c>
+      <c r="I254" t="n">
+        <v>372.15</v>
+      </c>
+      <c r="J254" t="n">
+        <v>374.4466666666667</v>
+      </c>
+      <c r="K254" t="n">
+        <v>376.7957142857143</v>
+      </c>
+      <c r="L254" t="n">
+        <v>385.0257142857143</v>
+      </c>
+      <c r="M254" t="n">
+        <v>384.6107692307692</v>
+      </c>
+      <c r="N254" t="n">
+        <v>389.9607692307693</v>
+      </c>
+      <c r="O254" t="n">
+        <v>386.3007692307692</v>
+      </c>
+      <c r="P254" t="n">
+        <v>388.1707692307692</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>383.8357142857143</v>
+      </c>
+      <c r="R254" t="n">
+        <v>385.1366666666667</v>
+      </c>
+      <c r="S254" t="n">
+        <v>380.8166666666667</v>
+      </c>
+      <c r="T254" t="n">
+        <v>373.1166666666666</v>
+      </c>
+      <c r="U254" t="n">
+        <v>371.6157142857143</v>
+      </c>
+      <c r="V254" t="n">
+        <v>372.5157142857143</v>
+      </c>
+      <c r="W254" t="n">
+        <v>376.7007692307693</v>
+      </c>
+      <c r="X254" t="n">
+        <v>370.2807692307693</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>376.2907692307692</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>371.8257142857143</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>370.9357142857143</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>371.9957142857143</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>382.7007692307693</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>387.9933333333333</v>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23048,7 +23327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25586,6 +25865,36 @@
       </c>
       <c r="B253" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -25754,28 +26063,28 @@
         <v>0.0425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09424853743372454</v>
+        <v>0.1099688450028522</v>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K2" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003684646982803907</v>
+        <v>0.005075796197571036</v>
       </c>
       <c r="M2" t="n">
-        <v>8.101041145142835</v>
+        <v>8.099176959617969</v>
       </c>
       <c r="N2" t="n">
-        <v>116.5893339491806</v>
+        <v>116.162234962568</v>
       </c>
       <c r="O2" t="n">
-        <v>10.79765409471801</v>
+        <v>10.77785855179813</v>
       </c>
       <c r="P2" t="n">
-        <v>390.7760450126884</v>
+        <v>390.6101585948954</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25831,28 +26140,28 @@
         <v>0.0484</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02647321727274488</v>
+        <v>-0.03671994260709163</v>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003669221950922674</v>
+        <v>0.000712034711163323</v>
       </c>
       <c r="M3" t="n">
-        <v>7.37653229599704</v>
+        <v>7.433332884774905</v>
       </c>
       <c r="N3" t="n">
-        <v>92.05251130143006</v>
+        <v>92.77507928170087</v>
       </c>
       <c r="O3" t="n">
-        <v>9.594399996947702</v>
+        <v>9.631982105553398</v>
       </c>
       <c r="P3" t="n">
-        <v>401.7421427306322</v>
+        <v>401.8502373210772</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25908,28 +26217,28 @@
         <v>0.1028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02402113534314209</v>
+        <v>0.01873766791334062</v>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K4" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003950023019958504</v>
+        <v>0.0002431304231678144</v>
       </c>
       <c r="M4" t="n">
-        <v>6.541235884718385</v>
+        <v>6.568733197479997</v>
       </c>
       <c r="N4" t="n">
-        <v>69.47176765941876</v>
+        <v>69.91979453716289</v>
       </c>
       <c r="O4" t="n">
-        <v>8.334972565006963</v>
+        <v>8.36180569836222</v>
       </c>
       <c r="P4" t="n">
-        <v>383.0456123423222</v>
+        <v>383.1012753504291</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25985,28 +26294,28 @@
         <v>0.0653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1902098081302067</v>
+        <v>0.1969784250095621</v>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K5" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01598270208767127</v>
+        <v>0.01750621317703993</v>
       </c>
       <c r="M5" t="n">
-        <v>7.710374588550094</v>
+        <v>7.698931913451042</v>
       </c>
       <c r="N5" t="n">
-        <v>105.4433768128951</v>
+        <v>104.9507421738101</v>
       </c>
       <c r="O5" t="n">
-        <v>10.26856254852134</v>
+        <v>10.24454694819688</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8051479594848</v>
+        <v>363.7348684608999</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26062,28 +26371,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3016645891195168</v>
+        <v>0.3070356091665099</v>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K6" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04895184989211498</v>
+        <v>0.05149314299924013</v>
       </c>
       <c r="M6" t="n">
-        <v>6.847997773839623</v>
+        <v>6.856860689175786</v>
       </c>
       <c r="N6" t="n">
-        <v>82.44118221705857</v>
+        <v>82.50057537483801</v>
       </c>
       <c r="O6" t="n">
-        <v>9.07971267260471</v>
+        <v>9.082982735579652</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9555644325011</v>
+        <v>358.9000668425617</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26139,28 +26448,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3141210658550501</v>
+        <v>0.3058456630898819</v>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K7" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06259192145101145</v>
+        <v>0.0604822995570653</v>
       </c>
       <c r="M7" t="n">
-        <v>6.314987815051441</v>
+        <v>6.295647694616049</v>
       </c>
       <c r="N7" t="n">
-        <v>68.53267602776913</v>
+        <v>68.24156822135841</v>
       </c>
       <c r="O7" t="n">
-        <v>8.278446474295109</v>
+        <v>8.260845490708467</v>
       </c>
       <c r="P7" t="n">
-        <v>362.7720687274289</v>
+        <v>362.8592763425243</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26216,28 +26525,28 @@
         <v>0.0837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2126305448420826</v>
+        <v>0.2038987644889403</v>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K8" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02865051419688103</v>
+        <v>0.02685391357442635</v>
       </c>
       <c r="M8" t="n">
-        <v>6.435385006394712</v>
+        <v>6.41673248382654</v>
       </c>
       <c r="N8" t="n">
-        <v>71.75476417275344</v>
+        <v>71.45012097167002</v>
       </c>
       <c r="O8" t="n">
-        <v>8.470818388606466</v>
+        <v>8.452817339305874</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4899364923136</v>
+        <v>369.5809944172632</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26293,28 +26602,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1435233678451073</v>
+        <v>0.1409635071109971</v>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K9" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01236129627469773</v>
+        <v>0.01213090228988867</v>
       </c>
       <c r="M9" t="n">
-        <v>6.711320887038688</v>
+        <v>6.701928358597156</v>
       </c>
       <c r="N9" t="n">
-        <v>77.80470109538612</v>
+        <v>77.40521623600168</v>
       </c>
       <c r="O9" t="n">
-        <v>8.820697313443315</v>
+        <v>8.798023427793408</v>
       </c>
       <c r="P9" t="n">
-        <v>375.396704950212</v>
+        <v>375.4236181342822</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26370,28 +26679,28 @@
         <v>0.0814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1488843151926062</v>
+        <v>0.1441959467723722</v>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K10" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01339411622759257</v>
+        <v>0.01280402726609275</v>
       </c>
       <c r="M10" t="n">
-        <v>6.62707312498579</v>
+        <v>6.613468243367601</v>
       </c>
       <c r="N10" t="n">
-        <v>76.74591952591261</v>
+        <v>76.30216018713591</v>
       </c>
       <c r="O10" t="n">
-        <v>8.76047484591518</v>
+        <v>8.735110771314575</v>
       </c>
       <c r="P10" t="n">
-        <v>377.7852628421038</v>
+        <v>377.834171214522</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26447,28 +26756,28 @@
         <v>0.0752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1453465800415136</v>
+        <v>0.1405752909149477</v>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K11" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01257112526259907</v>
+        <v>0.0119842544483284</v>
       </c>
       <c r="M11" t="n">
-        <v>6.841809982334619</v>
+        <v>6.824776480031882</v>
       </c>
       <c r="N11" t="n">
-        <v>79.07159022756862</v>
+        <v>78.61041105720669</v>
       </c>
       <c r="O11" t="n">
-        <v>8.892220770289535</v>
+        <v>8.86625124036121</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3775299139662</v>
+        <v>380.4269976674698</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26524,28 +26833,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02569490295054754</v>
+        <v>0.03111011982526404</v>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K12" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003937711267230082</v>
+        <v>0.000589173772456375</v>
       </c>
       <c r="M12" t="n">
-        <v>6.871468267688529</v>
+        <v>6.833985459242972</v>
       </c>
       <c r="N12" t="n">
-        <v>79.62992643629239</v>
+        <v>79.02154654633567</v>
       </c>
       <c r="O12" t="n">
-        <v>8.923560188416527</v>
+        <v>8.889406422609762</v>
       </c>
       <c r="P12" t="n">
-        <v>384.65569596185</v>
+        <v>384.6002649416567</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26601,28 +26910,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04617731504460482</v>
+        <v>0.04579304808986284</v>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K13" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001460334018861698</v>
+        <v>0.001462989145755489</v>
       </c>
       <c r="M13" t="n">
-        <v>6.698517181962265</v>
+        <v>6.67885304663865</v>
       </c>
       <c r="N13" t="n">
-        <v>69.81735309616161</v>
+        <v>69.36876520611989</v>
       </c>
       <c r="O13" t="n">
-        <v>8.355677895668407</v>
+        <v>8.328791341252336</v>
       </c>
       <c r="P13" t="n">
-        <v>388.1464883599463</v>
+        <v>388.15069865258</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26678,28 +26987,28 @@
         <v>0.0717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1144983411759885</v>
+        <v>0.1193011894432002</v>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K14" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007599649622327287</v>
+        <v>0.008408572333365449</v>
       </c>
       <c r="M14" t="n">
-        <v>7.227837027507085</v>
+        <v>7.186995052704789</v>
       </c>
       <c r="N14" t="n">
-        <v>81.66980561252838</v>
+        <v>80.98724346183154</v>
       </c>
       <c r="O14" t="n">
-        <v>9.037134812125377</v>
+        <v>8.999291275530064</v>
       </c>
       <c r="P14" t="n">
-        <v>385.7723561081817</v>
+        <v>385.7223921482071</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26755,28 +27064,28 @@
         <v>0.0732</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1938927550543096</v>
+        <v>0.2059626652331875</v>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K15" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02205923436222679</v>
+        <v>0.02527859290722301</v>
       </c>
       <c r="M15" t="n">
-        <v>7.169945533439906</v>
+        <v>7.152104167560098</v>
       </c>
       <c r="N15" t="n">
-        <v>81.1498912922667</v>
+        <v>80.89630079709389</v>
       </c>
       <c r="O15" t="n">
-        <v>9.008323445140428</v>
+        <v>8.9942370881078</v>
       </c>
       <c r="P15" t="n">
-        <v>382.9893530480252</v>
+        <v>382.8643384923149</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26832,28 +27141,28 @@
         <v>0.0735</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1730015167711871</v>
+        <v>0.1971290211776725</v>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K16" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01689393200161649</v>
+        <v>0.0220777015506779</v>
       </c>
       <c r="M16" t="n">
-        <v>7.054795010813748</v>
+        <v>7.077798496078365</v>
       </c>
       <c r="N16" t="n">
-        <v>84.37720370305554</v>
+        <v>84.75967827235411</v>
       </c>
       <c r="O16" t="n">
-        <v>9.185706489054368</v>
+        <v>9.206501956354222</v>
       </c>
       <c r="P16" t="n">
-        <v>383.642777049233</v>
+        <v>383.3927816929805</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26909,28 +27218,28 @@
         <v>0.0759</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09136690457024121</v>
+        <v>0.1105731011468278</v>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K17" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00618700318983334</v>
+        <v>0.009116131148154127</v>
       </c>
       <c r="M17" t="n">
-        <v>6.337581095258157</v>
+        <v>6.372394248279059</v>
       </c>
       <c r="N17" t="n">
-        <v>63.20254881416368</v>
+        <v>63.73200218057885</v>
       </c>
       <c r="O17" t="n">
-        <v>7.950003070072595</v>
+        <v>7.983232564605571</v>
       </c>
       <c r="P17" t="n">
-        <v>385.1649009964343</v>
+        <v>384.9632374983117</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -26986,28 +27295,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08860928452671267</v>
+        <v>0.1099493240542454</v>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005985486203363699</v>
+        <v>0.009304593201421518</v>
       </c>
       <c r="M18" t="n">
-        <v>6.279836681723877</v>
+        <v>6.293988350041612</v>
       </c>
       <c r="N18" t="n">
-        <v>61.13442110565907</v>
+        <v>61.39557540307732</v>
       </c>
       <c r="O18" t="n">
-        <v>7.818850369821581</v>
+        <v>7.835532872949824</v>
       </c>
       <c r="P18" t="n">
-        <v>383.2578371974407</v>
+        <v>383.0328768186782</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -27063,28 +27372,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1514658619892381</v>
+        <v>0.166427744851228</v>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K19" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01630833327305847</v>
+        <v>0.01987114824933633</v>
       </c>
       <c r="M19" t="n">
-        <v>6.434489853461395</v>
+        <v>6.453489267336746</v>
       </c>
       <c r="N19" t="n">
-        <v>64.55299900196992</v>
+        <v>64.79276333644253</v>
       </c>
       <c r="O19" t="n">
-        <v>8.034488098315283</v>
+        <v>8.049395215570083</v>
       </c>
       <c r="P19" t="n">
-        <v>381.6654216227907</v>
+        <v>381.5064433313586</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -27140,28 +27449,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1948018089489629</v>
+        <v>0.1978977545870943</v>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K20" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02787772842582303</v>
+        <v>0.02913015434479538</v>
       </c>
       <c r="M20" t="n">
-        <v>6.340126086082861</v>
+        <v>6.354537319514689</v>
       </c>
       <c r="N20" t="n">
-        <v>61.27206865607658</v>
+        <v>61.44700336969601</v>
       </c>
       <c r="O20" t="n">
-        <v>7.827647708991289</v>
+        <v>7.838813900692885</v>
       </c>
       <c r="P20" t="n">
-        <v>377.6656709228345</v>
+        <v>377.6331906055016</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -27217,28 +27526,28 @@
         <v>0.0774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1520439025692422</v>
+        <v>0.1533402713681179</v>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K21" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01782145419851933</v>
+        <v>0.01828922290224078</v>
       </c>
       <c r="M21" t="n">
-        <v>6.201774205518143</v>
+        <v>6.228469198434113</v>
       </c>
       <c r="N21" t="n">
-        <v>59.22028026221712</v>
+        <v>59.62956559553003</v>
       </c>
       <c r="O21" t="n">
-        <v>7.695471412604761</v>
+        <v>7.722018233307277</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6068617818789</v>
+        <v>377.5935482527314</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -27294,28 +27603,28 @@
         <v>0.0755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1967473904312747</v>
+        <v>0.1972838163411423</v>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K22" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02334363250336213</v>
+        <v>0.02389746315490027</v>
       </c>
       <c r="M22" t="n">
-        <v>6.908790969944377</v>
+        <v>6.901101892066348</v>
       </c>
       <c r="N22" t="n">
-        <v>74.46740920627094</v>
+        <v>74.27864913632395</v>
       </c>
       <c r="O22" t="n">
-        <v>8.629450110306621</v>
+        <v>8.618506200979608</v>
       </c>
       <c r="P22" t="n">
-        <v>376.7054254448954</v>
+        <v>376.7001318357586</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -27371,28 +27680,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3114652094403045</v>
+        <v>0.3101615911730243</v>
       </c>
       <c r="J23" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K23" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05312377913217714</v>
+        <v>0.05400683880824786</v>
       </c>
       <c r="M23" t="n">
-        <v>7.194690323671833</v>
+        <v>7.146297993862272</v>
       </c>
       <c r="N23" t="n">
-        <v>80.54403858690527</v>
+        <v>79.70655017049063</v>
       </c>
       <c r="O23" t="n">
-        <v>8.974633061407317</v>
+        <v>8.927852494888715</v>
       </c>
       <c r="P23" t="n">
-        <v>374.9390502422038</v>
+        <v>374.953331701278</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -27448,28 +27757,28 @@
         <v>0.068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3361680379736873</v>
+        <v>0.3349400120692816</v>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K24" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06582580051904829</v>
+        <v>0.06622172525404035</v>
       </c>
       <c r="M24" t="n">
-        <v>6.68733816473715</v>
+        <v>6.711852005281311</v>
       </c>
       <c r="N24" t="n">
-        <v>72.95270414026827</v>
+        <v>73.15117636130286</v>
       </c>
       <c r="O24" t="n">
-        <v>8.541235516028596</v>
+        <v>8.552846097136488</v>
       </c>
       <c r="P24" t="n">
-        <v>374.9499532400936</v>
+        <v>374.9639130603459</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -27525,28 +27834,28 @@
         <v>0.0709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3293663890505786</v>
+        <v>0.3330473046200861</v>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K25" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05901281543962922</v>
+        <v>0.06171224491381144</v>
       </c>
       <c r="M25" t="n">
-        <v>7.150102957827809</v>
+        <v>7.135846501797058</v>
       </c>
       <c r="N25" t="n">
-        <v>78.01648517405017</v>
+        <v>77.47800236574534</v>
       </c>
       <c r="O25" t="n">
-        <v>8.83269410621981</v>
+        <v>8.802158960490621</v>
       </c>
       <c r="P25" t="n">
-        <v>375.3204714522129</v>
+        <v>375.2814073670803</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -27602,28 +27911,28 @@
         <v>0.0776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.237601818764863</v>
+        <v>0.2486753511198781</v>
       </c>
       <c r="J26" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K26" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03228781527454461</v>
+        <v>0.03590787135051232</v>
       </c>
       <c r="M26" t="n">
-        <v>7.034368018094769</v>
+        <v>7.061160916815339</v>
       </c>
       <c r="N26" t="n">
-        <v>79.22168698891142</v>
+        <v>79.12901202583754</v>
       </c>
       <c r="O26" t="n">
-        <v>8.900656548194151</v>
+        <v>8.895448950212549</v>
       </c>
       <c r="P26" t="n">
-        <v>372.8129433538125</v>
+        <v>372.6969275331267</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -27679,28 +27988,28 @@
         <v>0.0764</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2950182969339644</v>
+        <v>0.3066901727904772</v>
       </c>
       <c r="J27" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K27" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04334137112123859</v>
+        <v>0.0472568765915562</v>
       </c>
       <c r="M27" t="n">
-        <v>7.748392403291951</v>
+        <v>7.77852419496591</v>
       </c>
       <c r="N27" t="n">
-        <v>89.3259649907308</v>
+        <v>89.68306560678684</v>
       </c>
       <c r="O27" t="n">
-        <v>9.451241452355918</v>
+        <v>9.470114339689191</v>
       </c>
       <c r="P27" t="n">
-        <v>372.1651578304287</v>
+        <v>372.0420808705945</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -27756,28 +28065,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2633433182000625</v>
+        <v>0.2733432172471181</v>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K28" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03276049235077794</v>
+        <v>0.03545251024014595</v>
       </c>
       <c r="M28" t="n">
-        <v>7.889671825380753</v>
+        <v>7.938742355897426</v>
       </c>
       <c r="N28" t="n">
-        <v>93.76607536750923</v>
+        <v>94.65413378335738</v>
       </c>
       <c r="O28" t="n">
-        <v>9.683288458344574</v>
+        <v>9.729035603972132</v>
       </c>
       <c r="P28" t="n">
-        <v>377.3238992790046</v>
+        <v>377.2171980859999</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -27833,28 +28142,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2576029644014615</v>
+        <v>0.2660035858438803</v>
       </c>
       <c r="J29" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K29" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02566211824539566</v>
+        <v>0.02760689928331483</v>
       </c>
       <c r="M29" t="n">
-        <v>8.440563724636297</v>
+        <v>8.49182971579024</v>
       </c>
       <c r="N29" t="n">
-        <v>116.4055863343991</v>
+        <v>117.0770373917938</v>
       </c>
       <c r="O29" t="n">
-        <v>10.78914205738339</v>
+        <v>10.82021429509572</v>
       </c>
       <c r="P29" t="n">
-        <v>389.8120494481582</v>
+        <v>389.7228685898856</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -27910,28 +28219,28 @@
         <v>0.0738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01167601007882872</v>
+        <v>0.01625241156080866</v>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K30" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L30" t="n">
-        <v>3.831026989753461e-05</v>
+        <v>7.608939291192662e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>9.793877185254065</v>
+        <v>9.777096585285218</v>
       </c>
       <c r="N30" t="n">
-        <v>156.9857959081854</v>
+        <v>155.8416599915451</v>
       </c>
       <c r="O30" t="n">
-        <v>12.52939726835196</v>
+        <v>12.48365571423472</v>
       </c>
       <c r="P30" t="n">
-        <v>398.3224930960085</v>
+        <v>398.2728176545427</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -27968,7 +28277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE251"/>
+  <dimension ref="A1:AE254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62771,6 +63080,441 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>-35.69453492602968,174.51480701229127</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>-35.6952644343713,174.51485744422362</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>-35.6959880225346,174.51480711442449</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>-35.69671437955497,174.5148740403499</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>-35.69741524394445,174.5151221912929</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>-35.69810310414534,174.51542454968185</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>-35.69879232846698,174.51571766804105</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>-35.69946465762658,174.51606113727408</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>-35.70014934327943,174.51635945103376</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>-35.70083145665719,174.516678350865</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>-35.70150905443778,174.5170128622413</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>-35.70218359723373,174.5173313095304</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>-35.70285744901519,174.5176484330789</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>-35.703544188198535,174.5179518802857</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>-35.70418881373792,174.51836808518635</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>-35.704850327135325,174.51870814742117</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>-35.70549254343209,174.51910331340312</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>-35.706135419984676,174.51950214005166</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>-35.706789055460845,174.51989378882922</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>-35.707432381038,174.5203208021794</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>-35.70804663452811,174.52080398505217</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>-35.70866014797105,174.52128800142123</t>
+        </is>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>-35.70926040379945,174.52179559703882</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>-35.70986315185298,174.5222748390694</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>-35.71044254317224,174.52280071725673</t>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>-35.7110267588381,174.5233389482427</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>-35.71158101869344,174.5239218404044</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>-35.71207780382402,174.52458886680498</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>-35.71263438253883,174.5251660335651</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>-35.694529818890686,174.51486290905908</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>-35.695246586524775,174.51505278569786</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>-35.69596834515795,174.51492950840822</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>-35.6966754892011,174.51503675333467</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>-35.69737964600428,174.51526721818695</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>-35.70349895502211,174.51808348523232</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>-35.70415855238311,174.5184529698901</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>-35.704817383363576,174.51879092805115</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>-35.7054717768545,174.5191505656983</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>-35.70609995862076,174.5195762794387</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>-35.70674163137599,174.51998760446344</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>-35.70736331367582,174.52045743329063</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>-35.707999639782926,174.5208962763369</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>-35.70863960871881,174.5213279442672</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>-35.709235422934576,174.52184334108307</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>-35.70984498591537,174.5223059559136</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>-35.71041936934029,174.52283692550876</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr">
+        <is>
+          <t>-35.71096724592483,174.52343193486223</t>
+        </is>
+      </c>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>-35.711509579210514,174.52403243275992</t>
+        </is>
+      </c>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>-35.71201673945423,174.52468158368393</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>-35.71261043177534,174.52520203323863</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>-35.69527415250217,174.51475107953533</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>-35.69601053903524,174.51466705996984</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>-35.69672298896968,174.51483801935606</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>-35.69743721821647,174.51503266714505</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>-35.69812771685184,174.51532427641047</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>-35.69881797644958,174.5156158443291</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>-35.69949687003065,174.51594336840768</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>-35.70017851220863,174.51625847376386</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>-35.70086138524108,174.51657474371012</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>-35.701526555184216,174.5169522779547</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>-35.70221291390994,174.51723753847972</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>-35.70286562945973,174.51762439377123</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>-35.70355250835198,174.51792767291826</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>-35.70421800865574,174.51828619167694</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>-35.70489307941739,174.51860071979755</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>-35.70552988616868,174.51901834353006</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>-35.70618408998857,174.51940038498478</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>-35.70684073750209,174.5197915497002</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>-35.70747144293709,174.52024352853073</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>-35.708090485316966,174.52071786784938</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>-35.70869109365492,174.52122782101915</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>-35.70934167385452,174.52164027125662</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>-35.70992168962717,174.52217456820847</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>-35.71052003829822,174.5226796337274</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>-35.711102974379756,174.5232198640529</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>-35.71167474139025,174.52377675184405</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>-35.71218737274423,174.52442250258807</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>-35.712725930960694,174.52502842953785</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -25908,7 +25908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25999,35 +25999,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26086,27 +26091,28 @@
       <c r="P2" t="n">
         <v>390.6101585948954</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.5104271624611 -35.69493501876273, 174.52058663055917 -35.69400671721104)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5104271624611</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.69493501876273</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5205866305592</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.69400671721104</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5155068965101</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.69447086798688</v>
       </c>
     </row>
@@ -26163,27 +26169,28 @@
       <c r="P3" t="n">
         <v>401.8502373210772</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.51051833423287 -35.695660804108236, 174.52067786090487 -35.694732498890374)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5105183342329</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.69566080410824</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5206778609049</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.69473249889037</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5155980975689</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.6951966514993</v>
       </c>
     </row>
@@ -26240,27 +26247,28 @@
       <c r="P4" t="n">
         <v>383.1012753504291</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.51065987178134 -35.69665469909897, 174.52068964290515 -35.695042132870675)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5106598717813</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.69665469909897</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5206896429052</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.69504213287068</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5156747573432</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.69584841598483</v>
       </c>
     </row>
@@ -26317,27 +26325,28 @@
       <c r="P5" t="n">
         <v>363.7348684608999</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.51098330196254 -35.697644236432694, 174.52079297702434 -35.69529951803723)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5109833019625</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.69764423643269</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5207929770243</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.69529951803723</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5158881394934</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.69647187723496</v>
       </c>
     </row>
@@ -26394,27 +26403,28 @@
       <c r="P6" t="n">
         <v>358.9000668425617</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.511242129498 -35.69836755815771, 174.52103066179572 -35.6959647995817)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.511242129498</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.69836755815771</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5210306617957</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.6959647995817</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5161363956469</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.69716617886971</v>
       </c>
     </row>
@@ -26471,27 +26481,28 @@
       <c r="P7" t="n">
         <v>362.8592763425243</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.51149269466794 -35.69906812934297, 174.52128127645474 -35.69666536365956)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5114926946679</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.69906812934297</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5212812764547</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.69666536365956</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5163869855613</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.69786674650126</v>
       </c>
     </row>
@@ -26548,27 +26559,28 @@
       <c r="P8" t="n">
         <v>369.5809944172632</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.51175166683583 -35.69979123396975, 174.5215187377166 -35.69733095119858)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.5117516668358</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.69979123396975</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5215187377166</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.69733095119858</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5166352022762</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.69856109258416</v>
       </c>
     </row>
@@ -26625,27 +26637,28 @@
       <c r="P9" t="n">
         <v>375.4236181342822</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.51204405265702 -35.70056334050855, 174.5217356669837 -35.69791238157444)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.512044052657</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.70056334050855</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.5217356669837</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.69791238157444</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5168898598204</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.6992378610415</v>
       </c>
     </row>
@@ -26702,27 +26715,28 @@
       <c r="P10" t="n">
         <v>377.834171214522</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.51235773425216 -35.70130522388525, 174.52199323107752 -35.69852176759385)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.5123577342522</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.70130522388525</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5219932310775</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.69852176759385</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.5171754826648</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.69991349573955</v>
       </c>
     </row>
@@ -26779,27 +26793,28 @@
       <c r="P11" t="n">
         <v>380.4269976674698</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.5126495032111 -35.701995172219256, 174.52228504596064 -35.6992117080523)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.5126495032111</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.70199517221926</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.5222850459606</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.6992117080523</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.5174672745859</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.70060344013578</v>
       </c>
     </row>
@@ -26856,27 +26871,28 @@
       <c r="P12" t="n">
         <v>384.6002649416567</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.5129412721697 -35.70268511458313, 174.5225768608444 -35.69990164254036)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.5129412721697</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.70268511458313</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.5225768608444</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.69990164254036</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.517759066507</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.70129337856174</v>
       </c>
     </row>
@@ -26933,27 +26949,28 @@
       <c r="P13" t="n">
         <v>388.15069865258</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.51326854402205 -35.70345369840972, 174.5228132087518 -35.700469567800575)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.5132685440221</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.70345369840972</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.5228132087518</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.70046956780057</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.5180408763869</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.70196163310514</v>
       </c>
     </row>
@@ -27010,27 +27027,28 @@
       <c r="P14" t="n">
         <v>385.7223921482071</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.5136469406201 -35.70421904660271, 174.5230803875107 -35.701008820215925)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.5136469406201</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.70421904660271</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.5230803875107</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.70100882021593</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.5183636640654</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.70261393340932</v>
       </c>
     </row>
@@ -27087,27 +27105,28 @@
       <c r="P15" t="n">
         <v>382.8643384923149</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.51399338983043 -35.704904647766945, 174.5234127880478 -35.7016670887449)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.5139933898304</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.70490464776694</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.5234127880478</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.7016670887449</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.5187030889391</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.70328586825592</v>
       </c>
     </row>
@@ -27164,27 +27183,28 @@
       <c r="P16" t="n">
         <v>383.3927816929805</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.51435524659675 -35.70561929516021, 174.52372114164967 -35.70228029132683)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.5143552465968</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.70561929516021</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.5237211416497</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.70228029132683</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.5190381941232</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.70394979324352</v>
       </c>
     </row>
@@ -27241,27 +27261,28 @@
       <c r="P17" t="n">
         <v>384.9632374983117</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.51478817629908 -35.7064102421446, 174.5239740579749 -35.70275451469033)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.5147881762991</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.7064102421446</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.5239740579749</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.70275451469033</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.519381117137</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.70458237841746</v>
       </c>
     </row>
@@ -27318,27 +27339,28 @@
       <c r="P18" t="n">
         <v>383.0328768186782</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.51527112414826 -35.70717662862854, 174.52426861858723 -35.70322230814658)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.5152711241483</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.70717662862854</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.5242686185872</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.70322230814658</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.5197698713677</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.70519946838756</v>
       </c>
     </row>
@@ -27395,27 +27417,28 @@
       <c r="P19" t="n">
         <v>381.5064433313586</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.5157697568534 -35.707920545274526, 174.52458573021957 -35.70370372826638)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.5157697568534</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.70792054527453</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.5245857302196</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.70370372826638</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.5201777435365</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.70581213677045</v>
       </c>
     </row>
@@ -27472,27 +27495,28 @@
       <c r="P20" t="n">
         <v>377.6331906055016</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.51628637311123 -35.708612517977436, 174.52497304151046 -35.70422129407817)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.5162863731112</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.70861251797744</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.5249730415105</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.70422129407817</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.5206297073108</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.7064169060278</v>
       </c>
     </row>
@@ -27549,27 +27573,28 @@
       <c r="P21" t="n">
         <v>377.5935482527314</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.51675243243164 -35.709236104693645, 174.5254391261918 -35.70484487050931)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.5167524324316</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-35.70923610469364</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.5254391261918</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-35.70484487050931</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.5210957793117</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-35.70704048760147</v>
       </c>
     </row>
@@ -27626,27 +27651,28 @@
       <c r="P22" t="n">
         <v>376.7001318357586</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.5172254064583 -35.70986875163507, 174.52589443831874 -35.705454388509835)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.5172254064583</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-35.70986875163507</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.5258944383187</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-35.70545438850984</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.5215599223885</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-35.70766157007245</v>
       </c>
     </row>
@@ -27703,27 +27729,28 @@
       <c r="P23" t="n">
         <v>374.953331701278</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.5177058691815 -35.71050204220092, 174.52635090228517 -35.70605653565922)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.5177058691815</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-35.71050204220092</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.5263509022852</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-35.70605653565922</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.5220283857333</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-35.70827928893007</v>
       </c>
     </row>
@@ -27780,27 +27807,28 @@
       <c r="P24" t="n">
         <v>374.9639130603459</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.51819559331838 -35.71114391648812, 174.5267974245738 -35.706643138419366)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.5181955933184</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-35.71114391648812</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.5267974245738</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-35.70664313841937</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.5224965089461</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-35.70889352745374</v>
       </c>
     </row>
@@ -27857,27 +27885,28 @@
       <c r="P25" t="n">
         <v>375.2814073670803</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.5187926350821 -35.71189595240438, 174.5271022524231 -35.70704472739071)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.5187926350821</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-35.71189595240438</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.5271022524231</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-35.70704472739071</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.5229474437526</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-35.70947033989755</v>
       </c>
     </row>
@@ -27934,27 +27963,28 @@
       <c r="P26" t="n">
         <v>372.6969275331267</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.51944653662636 -35.71258916574271, 174.5274852815678 -35.70744415153953)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.5194465366264</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-35.71258916574271</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.5274852815678</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-35.70744415153953</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.5234659090971</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-35.71001665864112</v>
       </c>
     </row>
@@ -28011,27 +28041,28 @@
       <c r="P27" t="n">
         <v>372.0420808705945</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.51999449234862 -35.713167158542134, 174.52803324996873 -35.7080221335553)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.5199944923486</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-35.71316715854213</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.5280332499687</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-35.7080221335553</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.5240138711587</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-35.71059464604872</v>
       </c>
     </row>
@@ -28088,27 +28119,28 @@
       <c r="P28" t="n">
         <v>377.2171980859999</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.52055361070498 -35.713756689961194, 174.5285638429167 -35.70858222406846)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.520553610705</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-35.71375668996119</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.5285638429167</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-35.70858222406846</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.5245587268108</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-35.71116945701483</v>
       </c>
     </row>
@@ -28165,27 +28197,28 @@
       <c r="P29" t="n">
         <v>389.7228685898856</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.52113156391616 -35.71435470611595, 174.52908137892638 -35.70911879858449)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.5211315639162</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-35.71435470611595</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.5290813789264</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-35.70911879858449</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.5251064714213</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-35.71173675235022</v>
       </c>
     </row>
@@ -28242,27 +28275,28 @@
       <c r="P30" t="n">
         <v>398.2728176545427</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (174.52170533881159 -35.714936684525924, 174.5296232429687 -35.709668790486695)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>174.5217053388116</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-35.71493668452592</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>174.5296232429687</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-35.7096687904867</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>174.5256642908901</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-35.71230273750631</v>
       </c>
     </row>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE254"/>
+  <dimension ref="A1:AE255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23316,6 +23316,91 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="n">
+        <v>368.505</v>
+      </c>
+      <c r="G255" t="n">
+        <v>375.7357142857143</v>
+      </c>
+      <c r="H255" t="n">
+        <v>377.3966666666666</v>
+      </c>
+      <c r="I255" t="n">
+        <v>385.005</v>
+      </c>
+      <c r="J255" t="n">
+        <v>385.2866666666667</v>
+      </c>
+      <c r="K255" t="n">
+        <v>386.4957142857143</v>
+      </c>
+      <c r="L255" t="n">
+        <v>385.2557142857143</v>
+      </c>
+      <c r="M255" t="n">
+        <v>381.9753846153847</v>
+      </c>
+      <c r="N255" t="n">
+        <v>374.8453846153847</v>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>392.3666666666667</v>
+      </c>
+      <c r="S255" t="n">
+        <v>390.2366666666667</v>
+      </c>
+      <c r="T255" t="n">
+        <v>388.5166666666667</v>
+      </c>
+      <c r="U255" t="n">
+        <v>389.0557142857143</v>
+      </c>
+      <c r="V255" t="n">
+        <v>383.3757142857143</v>
+      </c>
+      <c r="W255" t="n">
+        <v>384.5753846153846</v>
+      </c>
+      <c r="X255" t="n">
+        <v>387.8753846153846</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>390.4353846153846</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>386.5057142857143</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>384.6957142857143</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>381.1957142857143</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>396.7953846153847</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>417.3733333333333</v>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23327,7 +23412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25895,6 +25980,16 @@
       </c>
       <c r="B256" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -26071,7 +26166,7 @@
         <v>0.1099688450028522</v>
       </c>
       <c r="J2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K2" t="n">
         <v>209</v>
@@ -26149,7 +26244,7 @@
         <v>-0.03671994260709163</v>
       </c>
       <c r="J3" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" t="n">
         <v>197</v>
@@ -26227,7 +26322,7 @@
         <v>0.01873766791334062</v>
       </c>
       <c r="J4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K4" t="n">
         <v>208</v>
@@ -26305,7 +26400,7 @@
         <v>0.1969784250095621</v>
       </c>
       <c r="J5" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K5" t="n">
         <v>208</v>
@@ -26380,28 +26475,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3070356091665099</v>
+        <v>0.3088225794879528</v>
       </c>
       <c r="J6" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05149314299924013</v>
+        <v>0.05259377685321254</v>
       </c>
       <c r="M6" t="n">
-        <v>6.856860689175786</v>
+        <v>6.833621406744196</v>
       </c>
       <c r="N6" t="n">
-        <v>82.50057537483801</v>
+        <v>82.13259145598231</v>
       </c>
       <c r="O6" t="n">
-        <v>9.082982735579652</v>
+        <v>9.062703319428607</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9000668425617</v>
+        <v>358.8812951511557</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26458,28 +26553,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3058456630898819</v>
+        <v>0.3111168669345052</v>
       </c>
       <c r="J7" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K7" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0604822995570653</v>
+        <v>0.06300268611888671</v>
       </c>
       <c r="M7" t="n">
-        <v>6.295647694616049</v>
+        <v>6.29228790666975</v>
       </c>
       <c r="N7" t="n">
-        <v>68.24156822135841</v>
+        <v>68.03914134220652</v>
       </c>
       <c r="O7" t="n">
-        <v>8.260845490708467</v>
+        <v>8.248584202286263</v>
       </c>
       <c r="P7" t="n">
-        <v>362.8592763425243</v>
+        <v>362.8035124781382</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26536,28 +26631,28 @@
         <v>0.0837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2038987644889403</v>
+        <v>0.206638609493106</v>
       </c>
       <c r="J8" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K8" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02685391357442635</v>
+        <v>0.02785308452715218</v>
       </c>
       <c r="M8" t="n">
-        <v>6.41673248382654</v>
+        <v>6.399400257716382</v>
       </c>
       <c r="N8" t="n">
-        <v>71.45012097167002</v>
+        <v>71.14300871967721</v>
       </c>
       <c r="O8" t="n">
-        <v>8.452817339305874</v>
+        <v>8.434631510604195</v>
       </c>
       <c r="P8" t="n">
-        <v>369.5809944172632</v>
+        <v>369.552309464419</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26614,28 +26709,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1409635071109971</v>
+        <v>0.1468175030716316</v>
       </c>
       <c r="J9" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K9" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01213090228988867</v>
+        <v>0.01325543107983085</v>
       </c>
       <c r="M9" t="n">
-        <v>6.701928358597156</v>
+        <v>6.69791667631039</v>
       </c>
       <c r="N9" t="n">
-        <v>77.40521623600168</v>
+        <v>77.21668429079195</v>
       </c>
       <c r="O9" t="n">
-        <v>8.798023427793408</v>
+        <v>8.787302446757591</v>
       </c>
       <c r="P9" t="n">
-        <v>375.4236181342822</v>
+        <v>375.3623557724027</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26692,28 +26787,28 @@
         <v>0.0814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1441959467723722</v>
+        <v>0.1480273362096687</v>
       </c>
       <c r="J10" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K10" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01280402726609275</v>
+        <v>0.01361906138960189</v>
       </c>
       <c r="M10" t="n">
-        <v>6.613468243367601</v>
+        <v>6.597924365341711</v>
       </c>
       <c r="N10" t="n">
-        <v>76.30216018713591</v>
+        <v>76.0161249127312</v>
       </c>
       <c r="O10" t="n">
-        <v>8.735110771314575</v>
+        <v>8.718722665203384</v>
       </c>
       <c r="P10" t="n">
-        <v>377.834171214522</v>
+        <v>377.7941466752839</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26770,28 +26865,28 @@
         <v>0.0752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1405752909149477</v>
+        <v>0.1431057342711307</v>
       </c>
       <c r="J11" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K11" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0119842544483284</v>
+        <v>0.01254526205296036</v>
       </c>
       <c r="M11" t="n">
-        <v>6.824776480031882</v>
+        <v>6.804033910112513</v>
       </c>
       <c r="N11" t="n">
-        <v>78.61041105720669</v>
+        <v>78.27119380491878</v>
       </c>
       <c r="O11" t="n">
-        <v>8.86625124036121</v>
+        <v>8.847100870054483</v>
       </c>
       <c r="P11" t="n">
-        <v>380.4269976674698</v>
+        <v>380.4007271518025</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26848,28 +26943,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03111011982526404</v>
+        <v>0.03096421240973163</v>
       </c>
       <c r="J12" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K12" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000589173772456375</v>
+        <v>0.0005902662652612634</v>
       </c>
       <c r="M12" t="n">
-        <v>6.833985459242972</v>
+        <v>6.80254428265059</v>
       </c>
       <c r="N12" t="n">
-        <v>79.02154654633567</v>
+        <v>78.65064448178163</v>
       </c>
       <c r="O12" t="n">
-        <v>8.889406422609762</v>
+        <v>8.86851985856612</v>
       </c>
       <c r="P12" t="n">
-        <v>384.6002649416567</v>
+        <v>384.6017738366634</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26926,28 +27021,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04579304808986284</v>
+        <v>0.03850372565136006</v>
       </c>
       <c r="J13" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K13" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001462989145755489</v>
+        <v>0.001042186513013688</v>
       </c>
       <c r="M13" t="n">
-        <v>6.67885304663865</v>
+        <v>6.680919340263976</v>
       </c>
       <c r="N13" t="n">
-        <v>69.36876520611989</v>
+        <v>69.29509038389277</v>
       </c>
       <c r="O13" t="n">
-        <v>8.328791341252336</v>
+        <v>8.324367266278728</v>
       </c>
       <c r="P13" t="n">
-        <v>388.15069865258</v>
+        <v>388.2261952101803</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27004,28 +27099,28 @@
         <v>0.0717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1193011894432002</v>
+        <v>0.1056232539356443</v>
       </c>
       <c r="J14" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K14" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008408572333365449</v>
+        <v>0.006600259512806295</v>
       </c>
       <c r="M14" t="n">
-        <v>7.186995052704789</v>
+        <v>7.208595317773423</v>
       </c>
       <c r="N14" t="n">
-        <v>80.98724346183154</v>
+        <v>81.49023988440182</v>
       </c>
       <c r="O14" t="n">
-        <v>8.999291275530064</v>
+        <v>9.027194463641614</v>
       </c>
       <c r="P14" t="n">
-        <v>385.7223921482071</v>
+        <v>385.8659508900952</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27085,7 +27180,7 @@
         <v>0.2059626652331875</v>
       </c>
       <c r="J15" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K15" t="n">
         <v>217</v>
@@ -27163,7 +27258,7 @@
         <v>0.1971290211776725</v>
       </c>
       <c r="J16" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K16" t="n">
         <v>213</v>
@@ -27241,7 +27336,7 @@
         <v>0.1105731011468278</v>
       </c>
       <c r="J17" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K17" t="n">
         <v>208</v>
@@ -27316,28 +27411,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1099493240542454</v>
+        <v>0.1165583056358399</v>
       </c>
       <c r="J18" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009304593201421518</v>
+        <v>0.0105200568537549</v>
       </c>
       <c r="M18" t="n">
-        <v>6.293988350041612</v>
+        <v>6.295420167738137</v>
       </c>
       <c r="N18" t="n">
-        <v>61.39557540307732</v>
+        <v>61.30308427512441</v>
       </c>
       <c r="O18" t="n">
-        <v>7.835532872949824</v>
+        <v>7.829628616679364</v>
       </c>
       <c r="P18" t="n">
-        <v>383.0328768186782</v>
+        <v>382.9625101109183</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27394,28 +27489,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.166427744851228</v>
+        <v>0.1709270007412593</v>
       </c>
       <c r="J19" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K19" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01987114824933633</v>
+        <v>0.02111918844349081</v>
       </c>
       <c r="M19" t="n">
-        <v>6.453489267336746</v>
+        <v>6.442179720934107</v>
       </c>
       <c r="N19" t="n">
-        <v>64.79276333644253</v>
+        <v>64.57907987533635</v>
       </c>
       <c r="O19" t="n">
-        <v>8.049395215570083</v>
+        <v>8.036110991974684</v>
       </c>
       <c r="P19" t="n">
-        <v>381.5064433313586</v>
+        <v>381.458081439575</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27472,28 +27567,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1978977545870943</v>
+        <v>0.203640768287027</v>
       </c>
       <c r="J20" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K20" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02913015434479538</v>
+        <v>0.03102150279661098</v>
       </c>
       <c r="M20" t="n">
-        <v>6.354537319514689</v>
+        <v>6.350391512835581</v>
       </c>
       <c r="N20" t="n">
-        <v>61.44700336969601</v>
+        <v>61.31828076898933</v>
       </c>
       <c r="O20" t="n">
-        <v>7.838813900692885</v>
+        <v>7.83059900448167</v>
       </c>
       <c r="P20" t="n">
-        <v>377.6331906055016</v>
+        <v>377.5714452048482</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27550,28 +27645,28 @@
         <v>0.0774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1533402713681179</v>
+        <v>0.1607111577056705</v>
       </c>
       <c r="J21" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K21" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01828922290224078</v>
+        <v>0.02016676070333978</v>
       </c>
       <c r="M21" t="n">
-        <v>6.228469198434113</v>
+        <v>6.23449335166967</v>
       </c>
       <c r="N21" t="n">
-        <v>59.62956559553003</v>
+        <v>59.61306943654687</v>
       </c>
       <c r="O21" t="n">
-        <v>7.722018233307277</v>
+        <v>7.720950034584273</v>
       </c>
       <c r="P21" t="n">
-        <v>377.5935482527314</v>
+        <v>377.5143782441542</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27628,28 +27723,28 @@
         <v>0.0755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1972838163411423</v>
+        <v>0.1988628743311543</v>
       </c>
       <c r="J22" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K22" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02389746315490027</v>
+        <v>0.02450392094287224</v>
       </c>
       <c r="M22" t="n">
-        <v>6.901101892066348</v>
+        <v>6.877026033195918</v>
       </c>
       <c r="N22" t="n">
-        <v>74.27864913632395</v>
+        <v>73.95583676123547</v>
       </c>
       <c r="O22" t="n">
-        <v>8.618506200979608</v>
+        <v>8.599757947828268</v>
       </c>
       <c r="P22" t="n">
-        <v>376.7001318357586</v>
+        <v>376.6830382980664</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27706,28 +27801,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3101615911730243</v>
+        <v>0.3117857478185149</v>
       </c>
       <c r="J23" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K23" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05400683880824786</v>
+        <v>0.05503900105682646</v>
       </c>
       <c r="M23" t="n">
-        <v>7.146297993862272</v>
+        <v>7.121331463826682</v>
       </c>
       <c r="N23" t="n">
-        <v>79.70655017049063</v>
+        <v>79.35540923268957</v>
       </c>
       <c r="O23" t="n">
-        <v>8.927852494888715</v>
+        <v>8.90816531237996</v>
       </c>
       <c r="P23" t="n">
-        <v>374.953331701278</v>
+        <v>374.935765079594</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27784,28 +27879,28 @@
         <v>0.068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3349400120692816</v>
+        <v>0.3392577435660564</v>
       </c>
       <c r="J24" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K24" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06622172525404035</v>
+        <v>0.06839135817589859</v>
       </c>
       <c r="M24" t="n">
-        <v>6.711852005281311</v>
+        <v>6.700575821018897</v>
       </c>
       <c r="N24" t="n">
-        <v>73.15117636130286</v>
+        <v>72.90087316680174</v>
       </c>
       <c r="O24" t="n">
-        <v>8.552846097136488</v>
+        <v>8.538200815558378</v>
       </c>
       <c r="P24" t="n">
-        <v>374.9639130603459</v>
+        <v>374.9168904627417</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27862,28 +27957,28 @@
         <v>0.0709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3330473046200861</v>
+        <v>0.3400491826061355</v>
       </c>
       <c r="J25" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K25" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06171224491381144</v>
+        <v>0.06466351754690924</v>
       </c>
       <c r="M25" t="n">
-        <v>7.135846501797058</v>
+        <v>7.133286454756831</v>
       </c>
       <c r="N25" t="n">
-        <v>77.47800236574534</v>
+        <v>77.31535408342154</v>
       </c>
       <c r="O25" t="n">
-        <v>8.802158960490621</v>
+        <v>8.792914993528685</v>
       </c>
       <c r="P25" t="n">
-        <v>375.2814073670803</v>
+        <v>375.2056112193963</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27940,28 +28035,28 @@
         <v>0.0776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2486753511198781</v>
+        <v>0.2563113658427914</v>
       </c>
       <c r="J26" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K26" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03590787135051232</v>
+        <v>0.03833345977445857</v>
       </c>
       <c r="M26" t="n">
-        <v>7.061160916815339</v>
+        <v>7.067871009061748</v>
       </c>
       <c r="N26" t="n">
-        <v>79.12901202583754</v>
+        <v>79.0122429439479</v>
       </c>
       <c r="O26" t="n">
-        <v>8.895448950212549</v>
+        <v>8.888883110039636</v>
       </c>
       <c r="P26" t="n">
-        <v>372.6969275331267</v>
+        <v>372.6158695064969</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28018,28 +28113,28 @@
         <v>0.0764</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3066901727904772</v>
+        <v>0.3114698066880998</v>
       </c>
       <c r="J27" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K27" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0472568765915562</v>
+        <v>0.04909334910882657</v>
       </c>
       <c r="M27" t="n">
-        <v>7.77852419496591</v>
+        <v>7.76523511122655</v>
       </c>
       <c r="N27" t="n">
-        <v>89.68306560678684</v>
+        <v>89.37471991406552</v>
       </c>
       <c r="O27" t="n">
-        <v>9.470114339689191</v>
+        <v>9.45382038723317</v>
       </c>
       <c r="P27" t="n">
-        <v>372.0420808705945</v>
+        <v>371.9910043201547</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28096,28 +28191,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2733432172471181</v>
+        <v>0.2703282703428405</v>
       </c>
       <c r="J28" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K28" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03545251024014595</v>
+        <v>0.03503076300748165</v>
       </c>
       <c r="M28" t="n">
-        <v>7.938742355897426</v>
+        <v>7.915805941325742</v>
       </c>
       <c r="N28" t="n">
-        <v>94.65413378335738</v>
+        <v>94.25736412669421</v>
       </c>
       <c r="O28" t="n">
-        <v>9.729035603972132</v>
+        <v>9.708623183886282</v>
       </c>
       <c r="P28" t="n">
-        <v>377.2171980859999</v>
+        <v>377.2498730315959</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28174,28 +28269,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2660035858438803</v>
+        <v>0.2662743579078678</v>
       </c>
       <c r="J29" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K29" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02760689928331483</v>
+        <v>0.02794029809426157</v>
       </c>
       <c r="M29" t="n">
-        <v>8.49182971579024</v>
+        <v>8.452866315743485</v>
       </c>
       <c r="N29" t="n">
-        <v>117.0770373917938</v>
+        <v>116.5225039372215</v>
       </c>
       <c r="O29" t="n">
-        <v>10.82021429509572</v>
+        <v>10.79455899688456</v>
       </c>
       <c r="P29" t="n">
-        <v>389.7228685898856</v>
+        <v>389.719941265153</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28252,28 +28347,28 @@
         <v>0.0738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01625241156080866</v>
+        <v>0.03613821097253121</v>
       </c>
       <c r="J30" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K30" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" t="n">
-        <v>7.608939291192662e-05</v>
+        <v>0.0003761072309403923</v>
       </c>
       <c r="M30" t="n">
-        <v>9.777096585285218</v>
+        <v>9.823804361498921</v>
       </c>
       <c r="N30" t="n">
-        <v>155.8416599915451</v>
+        <v>156.7493634725312</v>
       </c>
       <c r="O30" t="n">
-        <v>12.48365571423472</v>
+        <v>12.5199586050646</v>
       </c>
       <c r="P30" t="n">
-        <v>398.2728176545427</v>
+        <v>398.0521953767515</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28311,7 +28406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE254"/>
+  <dimension ref="A1:AE255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63549,6 +63644,135 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>-35.697410451674294,174.51514171516936</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>-35.698092235640765,174.5154688283304</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-35.69878754993615,174.51573663899126</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>-35.69946002923361,174.51607805868227</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>-35.700145892754115,174.51637139607027</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>-35.70083219606021,174.51667579119479</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>-35.70152586306488,174.51695467394396</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>-35.702221416303445,174.51721034303603</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>-35.702918092055306,174.51747022511452</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>-35.70549897151799,174.51908868691547</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>-35.70614113514248,174.51949019130578</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>-35.706767606993324,174.5199362188113</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>-35.707388624598686,174.52040736253207</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>-35.70803864181182,174.52081968167664</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>-35.708653236221956,174.52130144275938</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>-35.709256034395914,174.52180394795522</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>-35.709847476114334,174.52230169039726</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>-35.71043834564875,174.5228072757341</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>-35.71102640109304,174.5233395072062</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>-35.71162325069552,174.52385646271463</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>-35.71210754964471,174.5245437022496</t>
+        </is>
+      </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>-35.71255852259104,174.52528005624725</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE255"/>
+  <dimension ref="A1:AE257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23401,6 +23401,196 @@
         </is>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="C256" t="n">
+        <v>411.8677777777777</v>
+      </c>
+      <c r="D256" t="n">
+        <v>384.3888888888889</v>
+      </c>
+      <c r="E256" t="n">
+        <v>367.1833333333333</v>
+      </c>
+      <c r="F256" t="n">
+        <v>366.77</v>
+      </c>
+      <c r="G256" t="n">
+        <v>361.3685714285714</v>
+      </c>
+      <c r="H256" t="n">
+        <v>370.5466666666667</v>
+      </c>
+      <c r="I256" t="n">
+        <v>377.62</v>
+      </c>
+      <c r="J256" t="n">
+        <v>381.6366666666667</v>
+      </c>
+      <c r="K256" t="n">
+        <v>383.5485714285714</v>
+      </c>
+      <c r="L256" t="n">
+        <v>388.6285714285714</v>
+      </c>
+      <c r="M256" t="n">
+        <v>393.8830769230769</v>
+      </c>
+      <c r="N256" t="n">
+        <v>389.3930769230769</v>
+      </c>
+      <c r="O256" t="n">
+        <v>388.0030769230769</v>
+      </c>
+      <c r="P256" t="n">
+        <v>390.6730769230769</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>385.0985714285715</v>
+      </c>
+      <c r="R256" t="n">
+        <v>385.1966666666667</v>
+      </c>
+      <c r="S256" t="n">
+        <v>384.0966666666667</v>
+      </c>
+      <c r="T256" t="n">
+        <v>377.9866666666667</v>
+      </c>
+      <c r="U256" t="n">
+        <v>377.4285714285714</v>
+      </c>
+      <c r="V256" t="n">
+        <v>378.6085714285715</v>
+      </c>
+      <c r="W256" t="n">
+        <v>379.4530769230769</v>
+      </c>
+      <c r="X256" t="n">
+        <v>378.9330769230769</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>380.9230769230769</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>377.5685714285714</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>375.5785714285714</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>386.2885714285715</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>398.1430769230769</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>389.7233333333333</v>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>394.46</v>
+      </c>
+      <c r="C257" t="n">
+        <v>400.5277777777778</v>
+      </c>
+      <c r="D257" t="n">
+        <v>373.0788888888889</v>
+      </c>
+      <c r="E257" t="n">
+        <v>368.4733333333333</v>
+      </c>
+      <c r="F257" t="n">
+        <v>361.11</v>
+      </c>
+      <c r="G257" t="n">
+        <v>364.3185714285714</v>
+      </c>
+      <c r="H257" t="n">
+        <v>370.4166666666667</v>
+      </c>
+      <c r="I257" t="n">
+        <v>382.48</v>
+      </c>
+      <c r="J257" t="n">
+        <v>382.7766666666667</v>
+      </c>
+      <c r="K257" t="n">
+        <v>384.2085714285714</v>
+      </c>
+      <c r="L257" t="n">
+        <v>386.9185714285715</v>
+      </c>
+      <c r="M257" t="n">
+        <v>392.0976923076923</v>
+      </c>
+      <c r="N257" t="n">
+        <v>396.9676923076924</v>
+      </c>
+      <c r="O257" t="n">
+        <v>387.0976923076923</v>
+      </c>
+      <c r="P257" t="n">
+        <v>391.7576923076923</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>394.2785714285715</v>
+      </c>
+      <c r="R257" t="n">
+        <v>391.1566666666667</v>
+      </c>
+      <c r="S257" t="n">
+        <v>389.6266666666667</v>
+      </c>
+      <c r="T257" t="n">
+        <v>385.1766666666667</v>
+      </c>
+      <c r="U257" t="n">
+        <v>378.5585714285714</v>
+      </c>
+      <c r="V257" t="n">
+        <v>380.5185714285714</v>
+      </c>
+      <c r="W257" t="n">
+        <v>379.6676923076923</v>
+      </c>
+      <c r="X257" t="n">
+        <v>381.9276923076923</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>382.2076923076923</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>372.0185714285714</v>
+      </c>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23412,7 +23602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25990,6 +26180,26 @@
       </c>
       <c r="B257" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -26163,28 +26373,28 @@
         <v>0.0425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1099688450028522</v>
+        <v>0.1131355064399783</v>
       </c>
       <c r="J2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K2" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005075796197571036</v>
+        <v>0.005476819318679715</v>
       </c>
       <c r="M2" t="n">
-        <v>8.099176959617969</v>
+        <v>8.036951531228617</v>
       </c>
       <c r="N2" t="n">
-        <v>116.162234962568</v>
+        <v>115.0895384094587</v>
       </c>
       <c r="O2" t="n">
-        <v>10.77785855179813</v>
+        <v>10.72797923233722</v>
       </c>
       <c r="P2" t="n">
-        <v>390.6101585948954</v>
+        <v>390.5761426359791</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26241,28 +26451,28 @@
         <v>0.0484</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03671994260709163</v>
+        <v>-0.02572988653624177</v>
       </c>
       <c r="J3" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000712034711163323</v>
+        <v>0.0003551225401094982</v>
       </c>
       <c r="M3" t="n">
-        <v>7.433332884774905</v>
+        <v>7.416215675499531</v>
       </c>
       <c r="N3" t="n">
-        <v>92.77507928170087</v>
+        <v>92.43846623370847</v>
       </c>
       <c r="O3" t="n">
-        <v>9.631982105553398</v>
+        <v>9.614492510460886</v>
       </c>
       <c r="P3" t="n">
-        <v>401.8502373210772</v>
+        <v>401.7332283426656</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26319,28 +26529,28 @@
         <v>0.1028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01873766791334062</v>
+        <v>0.008824827111457111</v>
       </c>
       <c r="J4" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K4" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002431304231678144</v>
+        <v>5.472108905868467e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.568733197479997</v>
+        <v>6.559967924401036</v>
       </c>
       <c r="N4" t="n">
-        <v>69.91979453716289</v>
+        <v>69.77553181741291</v>
       </c>
       <c r="O4" t="n">
-        <v>8.36180569836222</v>
+        <v>8.353174954316048</v>
       </c>
       <c r="P4" t="n">
-        <v>383.1012753504291</v>
+        <v>383.2061258261331</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26397,28 +26607,28 @@
         <v>0.0653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1969784250095621</v>
+        <v>0.1949723429915129</v>
       </c>
       <c r="J5" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K5" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01750621317703993</v>
+        <v>0.01753095634375845</v>
       </c>
       <c r="M5" t="n">
-        <v>7.698931913451042</v>
+        <v>7.634302727493729</v>
       </c>
       <c r="N5" t="n">
-        <v>104.9507421738101</v>
+        <v>103.9639748504123</v>
       </c>
       <c r="O5" t="n">
-        <v>10.24454694819688</v>
+        <v>10.19627259592506</v>
       </c>
       <c r="P5" t="n">
-        <v>363.7348684608999</v>
+        <v>363.7561060055647</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26475,28 +26685,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3088225794879528</v>
+        <v>0.3030011817585839</v>
       </c>
       <c r="J6" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K6" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05259377685321254</v>
+        <v>0.05169844561927739</v>
       </c>
       <c r="M6" t="n">
-        <v>6.833621406744196</v>
+        <v>6.796089452981942</v>
       </c>
       <c r="N6" t="n">
-        <v>82.13259145598231</v>
+        <v>81.5271444815871</v>
       </c>
       <c r="O6" t="n">
-        <v>9.062703319428607</v>
+        <v>9.02923831126342</v>
       </c>
       <c r="P6" t="n">
-        <v>358.8812951511557</v>
+        <v>358.9428793194365</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26553,28 +26763,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3111168669345052</v>
+        <v>0.294752115466775</v>
       </c>
       <c r="J7" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06300268611888671</v>
+        <v>0.0576398051853334</v>
       </c>
       <c r="M7" t="n">
-        <v>6.29228790666975</v>
+        <v>6.298063981148148</v>
       </c>
       <c r="N7" t="n">
-        <v>68.03914134220652</v>
+        <v>67.99896651321235</v>
       </c>
       <c r="O7" t="n">
-        <v>8.248584202286263</v>
+        <v>8.246148586656219</v>
       </c>
       <c r="P7" t="n">
-        <v>362.8035124781382</v>
+        <v>362.9777542655522</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26631,28 +26841,28 @@
         <v>0.0837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.206638609493106</v>
+        <v>0.1975354259705525</v>
       </c>
       <c r="J8" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K8" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02785308452715218</v>
+        <v>0.02601932878026758</v>
       </c>
       <c r="M8" t="n">
-        <v>6.399400257716382</v>
+        <v>6.377122772452077</v>
       </c>
       <c r="N8" t="n">
-        <v>71.14300871967721</v>
+        <v>70.65036775154518</v>
       </c>
       <c r="O8" t="n">
-        <v>8.434631510604195</v>
+        <v>8.405377311670499</v>
       </c>
       <c r="P8" t="n">
-        <v>369.552309464419</v>
+        <v>369.6482400760967</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26709,28 +26919,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1468175030716316</v>
+        <v>0.1485752616478881</v>
       </c>
       <c r="J9" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K9" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01325543107983085</v>
+        <v>0.0138429041349506</v>
       </c>
       <c r="M9" t="n">
-        <v>6.69791667631039</v>
+        <v>6.660013797924494</v>
       </c>
       <c r="N9" t="n">
-        <v>77.21668429079195</v>
+        <v>76.59261167933388</v>
       </c>
       <c r="O9" t="n">
-        <v>8.787302446757591</v>
+        <v>8.751720498241125</v>
       </c>
       <c r="P9" t="n">
-        <v>375.3623557724027</v>
+        <v>375.3438159208258</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26787,28 +26997,28 @@
         <v>0.0814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1480273362096687</v>
+        <v>0.1492337215342168</v>
       </c>
       <c r="J10" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K10" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01361906138960189</v>
+        <v>0.01413943883931834</v>
       </c>
       <c r="M10" t="n">
-        <v>6.597924365341711</v>
+        <v>6.54247637148425</v>
       </c>
       <c r="N10" t="n">
-        <v>76.0161249127312</v>
+        <v>75.33119250195338</v>
       </c>
       <c r="O10" t="n">
-        <v>8.718722665203384</v>
+        <v>8.679354382784089</v>
       </c>
       <c r="P10" t="n">
-        <v>377.7941466752839</v>
+        <v>377.7814561762962</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26865,28 +27075,28 @@
         <v>0.0752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1431057342711307</v>
+        <v>0.1426900922834252</v>
       </c>
       <c r="J11" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K11" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01254526205296036</v>
+        <v>0.01274703149457157</v>
       </c>
       <c r="M11" t="n">
-        <v>6.804033910112513</v>
+        <v>6.744140526604094</v>
       </c>
       <c r="N11" t="n">
-        <v>78.27119380491878</v>
+        <v>77.54784260988824</v>
       </c>
       <c r="O11" t="n">
-        <v>8.847100870054483</v>
+        <v>8.806125289245449</v>
       </c>
       <c r="P11" t="n">
-        <v>380.4007271518025</v>
+        <v>380.4050680116741</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26943,28 +27153,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03096421240973163</v>
+        <v>0.03581555494044874</v>
       </c>
       <c r="J12" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K12" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005902662652612634</v>
+        <v>0.0008069163056468875</v>
       </c>
       <c r="M12" t="n">
-        <v>6.80254428265059</v>
+        <v>6.761193419084569</v>
       </c>
       <c r="N12" t="n">
-        <v>78.65064448178163</v>
+        <v>77.97662482749551</v>
       </c>
       <c r="O12" t="n">
-        <v>8.86851985856612</v>
+        <v>8.830437408616604</v>
       </c>
       <c r="P12" t="n">
-        <v>384.6017738366634</v>
+        <v>384.5512812199007</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27021,28 +27231,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03850372565136006</v>
+        <v>0.04587647579257419</v>
       </c>
       <c r="J13" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K13" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001042186513013688</v>
+        <v>0.001507854730023683</v>
       </c>
       <c r="M13" t="n">
-        <v>6.680919340263976</v>
+        <v>6.654643113942151</v>
       </c>
       <c r="N13" t="n">
-        <v>69.29509038389277</v>
+        <v>68.80239496463315</v>
       </c>
       <c r="O13" t="n">
-        <v>8.324367266278728</v>
+        <v>8.294720909387678</v>
       </c>
       <c r="P13" t="n">
-        <v>388.2261952101803</v>
+        <v>388.1493294470295</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27099,28 +27309,28 @@
         <v>0.0717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1056232539356443</v>
+        <v>0.1145278287816231</v>
       </c>
       <c r="J14" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K14" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006600259512806295</v>
+        <v>0.007881679770505245</v>
       </c>
       <c r="M14" t="n">
-        <v>7.208595317773423</v>
+        <v>7.189624006530896</v>
       </c>
       <c r="N14" t="n">
-        <v>81.49023988440182</v>
+        <v>81.06795254643289</v>
       </c>
       <c r="O14" t="n">
-        <v>9.027194463641614</v>
+        <v>9.003774350039704</v>
       </c>
       <c r="P14" t="n">
-        <v>385.8659508900952</v>
+        <v>385.771814299974</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27177,28 +27387,28 @@
         <v>0.0732</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2059626652331875</v>
+        <v>0.2047910772776764</v>
       </c>
       <c r="J15" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K15" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02527859290722301</v>
+        <v>0.02549208388823931</v>
       </c>
       <c r="M15" t="n">
-        <v>7.152104167560098</v>
+        <v>7.09154797329974</v>
       </c>
       <c r="N15" t="n">
-        <v>80.89630079709389</v>
+        <v>80.16278625405057</v>
       </c>
       <c r="O15" t="n">
-        <v>8.9942370881078</v>
+        <v>8.953367313701062</v>
       </c>
       <c r="P15" t="n">
-        <v>382.8643384923149</v>
+        <v>382.8766958923745</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27255,28 +27465,28 @@
         <v>0.0735</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1971290211776725</v>
+        <v>0.202481879502683</v>
       </c>
       <c r="J16" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K16" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0220777015506779</v>
+        <v>0.02372075847785848</v>
       </c>
       <c r="M16" t="n">
-        <v>7.077798496078365</v>
+        <v>7.038850661723703</v>
       </c>
       <c r="N16" t="n">
-        <v>84.75967827235411</v>
+        <v>84.04205425304772</v>
       </c>
       <c r="O16" t="n">
-        <v>9.206501956354222</v>
+        <v>9.167445350426023</v>
       </c>
       <c r="P16" t="n">
-        <v>383.3927816929805</v>
+        <v>383.3363501041465</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27333,28 +27543,28 @@
         <v>0.0759</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1105731011468278</v>
+        <v>0.1144111991331826</v>
       </c>
       <c r="J17" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K17" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009116131148154127</v>
+        <v>0.009928270416738605</v>
       </c>
       <c r="M17" t="n">
-        <v>6.372394248279059</v>
+        <v>6.355928315970095</v>
       </c>
       <c r="N17" t="n">
-        <v>63.73200218057885</v>
+        <v>63.35814337412862</v>
       </c>
       <c r="O17" t="n">
-        <v>7.983232564605571</v>
+        <v>7.959782872298002</v>
       </c>
       <c r="P17" t="n">
-        <v>384.9632374983117</v>
+        <v>384.9221727494732</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27411,28 +27621,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1165583056358399</v>
+        <v>0.1209856677971262</v>
       </c>
       <c r="J18" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K18" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0105200568537549</v>
+        <v>0.01153921840609173</v>
       </c>
       <c r="M18" t="n">
-        <v>6.295420167738137</v>
+        <v>6.2647056293387</v>
       </c>
       <c r="N18" t="n">
-        <v>61.30308427512441</v>
+        <v>60.85538918911934</v>
       </c>
       <c r="O18" t="n">
-        <v>7.829628616679364</v>
+        <v>7.800986424108129</v>
       </c>
       <c r="P18" t="n">
-        <v>382.9625101109183</v>
+        <v>382.9150154472293</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27489,28 +27699,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1709270007412593</v>
+        <v>0.1729224305905275</v>
       </c>
       <c r="J19" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02111918844349081</v>
+        <v>0.0220174283794613</v>
       </c>
       <c r="M19" t="n">
-        <v>6.442179720934107</v>
+        <v>6.406806167648848</v>
       </c>
       <c r="N19" t="n">
-        <v>64.57907987533635</v>
+        <v>64.05355362255598</v>
       </c>
       <c r="O19" t="n">
-        <v>8.036110991974684</v>
+        <v>8.003346401509557</v>
       </c>
       <c r="P19" t="n">
-        <v>381.458081439575</v>
+        <v>381.4364548240503</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27567,28 +27777,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.203640768287027</v>
+        <v>0.2012480059547142</v>
       </c>
       <c r="J20" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K20" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03102150279661098</v>
+        <v>0.03085837997594998</v>
       </c>
       <c r="M20" t="n">
-        <v>6.350391512835581</v>
+        <v>6.326032212158684</v>
       </c>
       <c r="N20" t="n">
-        <v>61.31828076898933</v>
+        <v>60.89160537667748</v>
       </c>
       <c r="O20" t="n">
-        <v>7.83059900448167</v>
+        <v>7.803307335782533</v>
       </c>
       <c r="P20" t="n">
-        <v>377.5714452048482</v>
+        <v>377.5973124757627</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27645,28 +27855,28 @@
         <v>0.0774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1607111577056705</v>
+        <v>0.1536525264155847</v>
       </c>
       <c r="J21" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K21" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02016676070333978</v>
+        <v>0.01879722987909338</v>
       </c>
       <c r="M21" t="n">
-        <v>6.23449335166967</v>
+        <v>6.210191655737292</v>
       </c>
       <c r="N21" t="n">
-        <v>59.61306943654687</v>
+        <v>59.19410037471787</v>
       </c>
       <c r="O21" t="n">
-        <v>7.720950034584273</v>
+        <v>7.693770231474155</v>
       </c>
       <c r="P21" t="n">
-        <v>377.5143782441542</v>
+        <v>377.5907128964076</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27723,28 +27933,28 @@
         <v>0.0755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1988628743311543</v>
+        <v>0.1945768513075827</v>
       </c>
       <c r="J22" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K22" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02450392094287224</v>
+        <v>0.02392717071107708</v>
       </c>
       <c r="M22" t="n">
-        <v>6.877026033195918</v>
+        <v>6.83623983577701</v>
       </c>
       <c r="N22" t="n">
-        <v>73.95583676123547</v>
+        <v>73.34713210660645</v>
       </c>
       <c r="O22" t="n">
-        <v>8.599757947828268</v>
+        <v>8.564294022662139</v>
       </c>
       <c r="P22" t="n">
-        <v>376.6830382980664</v>
+        <v>376.7297442992243</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27801,28 +28011,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3117857478185149</v>
+        <v>0.3053158348840183</v>
       </c>
       <c r="J23" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K23" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05503900105682646</v>
+        <v>0.05382057488626046</v>
       </c>
       <c r="M23" t="n">
-        <v>7.121331463826682</v>
+        <v>7.086938471957017</v>
       </c>
       <c r="N23" t="n">
-        <v>79.35540923268957</v>
+        <v>78.73918967056034</v>
       </c>
       <c r="O23" t="n">
-        <v>8.90816531237996</v>
+        <v>8.873510560683428</v>
       </c>
       <c r="P23" t="n">
-        <v>374.935765079594</v>
+        <v>375.0062365467303</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27879,28 +28089,28 @@
         <v>0.068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3392577435660564</v>
+        <v>0.3329400413453673</v>
       </c>
       <c r="J24" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K24" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06839135817589859</v>
+        <v>0.0672006632482578</v>
       </c>
       <c r="M24" t="n">
-        <v>6.700575821018897</v>
+        <v>6.668686179267833</v>
       </c>
       <c r="N24" t="n">
-        <v>72.90087316680174</v>
+        <v>72.35001748106532</v>
       </c>
       <c r="O24" t="n">
-        <v>8.538200815558378</v>
+        <v>8.50588134651932</v>
       </c>
       <c r="P24" t="n">
-        <v>374.9168904627417</v>
+        <v>374.9861467551218</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27957,28 +28167,28 @@
         <v>0.0709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3400491826061355</v>
+        <v>0.3350715197784504</v>
       </c>
       <c r="J25" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K25" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06466351754690924</v>
+        <v>0.06416023449831332</v>
       </c>
       <c r="M25" t="n">
-        <v>7.133286454756831</v>
+        <v>7.088007850611449</v>
       </c>
       <c r="N25" t="n">
-        <v>77.31535408342154</v>
+        <v>76.64227170178113</v>
       </c>
       <c r="O25" t="n">
-        <v>8.792914993528685</v>
+        <v>8.754557196213931</v>
       </c>
       <c r="P25" t="n">
-        <v>375.2056112193963</v>
+        <v>375.2598429771577</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28035,28 +28245,28 @@
         <v>0.0776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2563113658427914</v>
+        <v>0.2473740269129478</v>
       </c>
       <c r="J26" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K26" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03833345977445857</v>
+        <v>0.03643448156588736</v>
       </c>
       <c r="M26" t="n">
-        <v>7.067871009061748</v>
+        <v>7.036024960883844</v>
       </c>
       <c r="N26" t="n">
-        <v>79.0122429439479</v>
+        <v>78.51845293163235</v>
       </c>
       <c r="O26" t="n">
-        <v>8.888883110039636</v>
+        <v>8.861063871321116</v>
       </c>
       <c r="P26" t="n">
-        <v>372.6158695064969</v>
+        <v>372.71141913534</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28113,28 +28323,28 @@
         <v>0.0764</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3114698066880998</v>
+        <v>0.3070680916014623</v>
       </c>
       <c r="J27" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K27" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04909334910882657</v>
+        <v>0.04821136192579567</v>
       </c>
       <c r="M27" t="n">
-        <v>7.76523511122655</v>
+        <v>7.749253947513587</v>
       </c>
       <c r="N27" t="n">
-        <v>89.37471991406552</v>
+        <v>89.05336029555447</v>
       </c>
       <c r="O27" t="n">
-        <v>9.45382038723317</v>
+        <v>9.436808798293757</v>
       </c>
       <c r="P27" t="n">
-        <v>371.9910043201547</v>
+        <v>372.0383427097305</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28191,28 +28401,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2703282703428405</v>
+        <v>0.2724105177592621</v>
       </c>
       <c r="J28" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K28" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03503076300748165</v>
+        <v>0.03590175532872342</v>
       </c>
       <c r="M28" t="n">
-        <v>7.915805941325742</v>
+        <v>7.888877996433995</v>
       </c>
       <c r="N28" t="n">
-        <v>94.25736412669421</v>
+        <v>93.84266991715458</v>
       </c>
       <c r="O28" t="n">
-        <v>9.708623183886282</v>
+        <v>9.687242637466793</v>
       </c>
       <c r="P28" t="n">
-        <v>377.2498730315959</v>
+        <v>377.2271624689333</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28269,28 +28479,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2662743579078678</v>
+        <v>0.2678638975508683</v>
       </c>
       <c r="J29" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K29" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02794029809426157</v>
+        <v>0.02855035303171849</v>
       </c>
       <c r="M29" t="n">
-        <v>8.452866315743485</v>
+        <v>8.420374655311974</v>
       </c>
       <c r="N29" t="n">
-        <v>116.5225039372215</v>
+        <v>115.984326693857</v>
       </c>
       <c r="O29" t="n">
-        <v>10.79455899688456</v>
+        <v>10.76960197471833</v>
       </c>
       <c r="P29" t="n">
-        <v>389.719941265153</v>
+        <v>389.7026453126187</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28347,28 +28557,28 @@
         <v>0.0738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03613821097253121</v>
+        <v>0.02628741124812545</v>
       </c>
       <c r="J30" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K30" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0003761072309403923</v>
+        <v>0.0002006850928643056</v>
       </c>
       <c r="M30" t="n">
-        <v>9.823804361498921</v>
+        <v>9.818275116989339</v>
       </c>
       <c r="N30" t="n">
-        <v>156.7493634725312</v>
+        <v>156.4015215993952</v>
       </c>
       <c r="O30" t="n">
-        <v>12.5199586050646</v>
+        <v>12.50605939532494</v>
       </c>
       <c r="P30" t="n">
-        <v>398.0521953767515</v>
+        <v>398.1621633366834</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28406,7 +28616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE255"/>
+  <dimension ref="A1:AE257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63773,6 +63983,304 @@
         </is>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>-35.69453806655617,174.51477263961868</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>-35.695247626700876,174.5150414012546</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>-35.69598475330967,174.51482744917743</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>-35.696713610705835,174.51487725714088</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>-35.697414958226524,174.5151233553181</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>-35.69812955361771,174.51531679332794</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>-35.69880576862328,174.5156643100311</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>-35.699481193723585,174.51600068120462</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>-35.70015687625362,174.51633337334857</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>-35.70084106459332,174.51664509003044</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>-35.70151571340869,174.51698981015414</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>-35.70218299913605,174.51733322257658</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>-35.70286759981413,174.51761860362393</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>-35.70354654961474,174.51794500978093</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>-35.70420897498254,174.5183115316993</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>-35.704888087609056,174.5186132631954</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>-35.70552962961572,174.5190189272928</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>-35.70616913331918,174.5194316551374</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>-35.70681761118408,174.51983729898706</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>-35.70744383910959,174.52029813542933</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>-35.70806139922495,174.52077498914622</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>-35.708677861863926,174.5212535530372</t>
+        </is>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>-35.709299559920396,174.5217207607648</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>-35.70989738499849,174.5222162002676</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>-35.71048807992028,174.52272956766944</t>
+        </is>
+      </c>
+      <c r="AA256" t="inlineStr">
+        <is>
+          <t>-35.71107713726818,174.52326023370577</t>
+        </is>
+      </c>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>-35.71159474689627,174.52390058833075</t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>-35.71209991715097,174.52455529104907</t>
+        </is>
+      </c>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>-35.71271607336816,174.52504324625227</t>
+        </is>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>-35.69453931072372,174.514759022329</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>-35.69525900502038,174.5149168678695</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>-35.69600446738163,174.51470482625334</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>-35.69671034098386,174.51489093733926</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>-35.697429659697654,174.515063460918</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>-35.698121891147046,174.51534801062948</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>-35.69880611437897,174.51566293736437</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>-35.69946726557454,174.5160516026097</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>-35.70015344579202,174.51634524893953</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>-35.700839078524034,174.5166519654251</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>-35.70152085916957,174.51697199649857</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>-35.70218875923726,174.51731479859123</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>-35.7028413097106,174.51769586048403</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>-35.70354971881239,174.51793578904588</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>-35.70420505937093,174.51832251523007</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>-35.704851800964065,174.5187044440009</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>-35.70550414534198,174.5190769143749</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>-35.70614391672153,174.51948437582513</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>-35.7067834677803,174.51990484254634</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>-35.70743847301501,174.52030875082346</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>-35.70805228125824,174.52079289562613</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>-35.70867683009464,174.52125555953015</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>-35.70928498402406,174.52174861864447</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>-35.70989064492132,174.52222774552024</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>-35.71051896506944,174.52268131061416</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-35.700822570920316,174.51670911154892</t>
+          <t>-35.70082257092032,174.51670911154892</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -45955,7 +45955,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-35.69598587274845,174.51482048621128</t>
+          <t>-35.69598587274846,174.51482048621128</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -53688,7 +53688,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>-35.704200463385874,174.51833540724525</t>
+          <t>-35.70420046338587,174.51833540724525</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -56593,7 +56593,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>-35.70490828070822,174.51856252201958</t>
+          <t>-35.704908280708224,174.51856252201958</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -60797,7 +60797,7 @@
       </c>
       <c r="AD230" t="inlineStr">
         <is>
-          <t>-35.71268826697056,174.52508504135753</t>
+          <t>-35.71268826697055,174.52508504135753</t>
         </is>
       </c>
       <c r="AE230" t="inlineStr">

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE257"/>
+  <dimension ref="A1:AE258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23591,6 +23591,105 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>391.32</v>
+      </c>
+      <c r="C258" t="n">
+        <v>400.06</v>
+      </c>
+      <c r="D258" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="E258" t="n">
+        <v>359.92</v>
+      </c>
+      <c r="F258" t="n">
+        <v>365.21</v>
+      </c>
+      <c r="G258" t="n">
+        <v>368.0342857142857</v>
+      </c>
+      <c r="H258" t="n">
+        <v>371.04</v>
+      </c>
+      <c r="I258" t="n">
+        <v>372.98</v>
+      </c>
+      <c r="J258" t="n">
+        <v>381.41</v>
+      </c>
+      <c r="K258" t="n">
+        <v>382.2542857142857</v>
+      </c>
+      <c r="L258" t="n">
+        <v>390.8142857142857</v>
+      </c>
+      <c r="M258" t="n">
+        <v>395.7030769230769</v>
+      </c>
+      <c r="N258" t="n">
+        <v>387.2630769230769</v>
+      </c>
+      <c r="O258" t="n">
+        <v>387.1330769230769</v>
+      </c>
+      <c r="P258" t="n">
+        <v>395.1930769230769</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>395.6942857142857</v>
+      </c>
+      <c r="R258" t="n">
+        <v>383.16</v>
+      </c>
+      <c r="S258" t="n">
+        <v>383.06</v>
+      </c>
+      <c r="T258" t="n">
+        <v>377.37</v>
+      </c>
+      <c r="U258" t="n">
+        <v>374.8142857142857</v>
+      </c>
+      <c r="V258" t="n">
+        <v>371.6142857142857</v>
+      </c>
+      <c r="W258" t="n">
+        <v>372.5430769230769</v>
+      </c>
+      <c r="X258" t="n">
+        <v>376.5630769230769</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>377.8530769230769</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>361.9542857142857</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>353.9642857142857</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>365.7342857142857</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>381.4930769230769</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23602,7 +23701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26200,6 +26299,16 @@
       </c>
       <c r="B259" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -26373,28 +26482,28 @@
         <v>0.0425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1131355064399783</v>
+        <v>0.1110584947202457</v>
       </c>
       <c r="J2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K2" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005476819318679715</v>
+        <v>0.00532896563407903</v>
       </c>
       <c r="M2" t="n">
-        <v>8.036951531228617</v>
+        <v>8.009784164187547</v>
       </c>
       <c r="N2" t="n">
-        <v>115.0895384094587</v>
+        <v>114.568611243383</v>
       </c>
       <c r="O2" t="n">
-        <v>10.72797923233722</v>
+        <v>10.70367279224206</v>
       </c>
       <c r="P2" t="n">
-        <v>390.5761426359791</v>
+        <v>390.5984908884676</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26451,28 +26560,28 @@
         <v>0.0484</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02572988653624177</v>
+        <v>-0.02676659044975246</v>
       </c>
       <c r="J3" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003551225401094982</v>
+        <v>0.0003883858112843086</v>
       </c>
       <c r="M3" t="n">
-        <v>7.416215675499531</v>
+        <v>7.384047975385037</v>
       </c>
       <c r="N3" t="n">
-        <v>92.43846623370847</v>
+        <v>91.98129450590716</v>
       </c>
       <c r="O3" t="n">
-        <v>9.614492510460886</v>
+        <v>9.590687905771262</v>
       </c>
       <c r="P3" t="n">
-        <v>401.7332283426656</v>
+        <v>401.7442876635167</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26529,28 +26638,28 @@
         <v>0.1028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008824827111457111</v>
+        <v>0.009194221645826273</v>
       </c>
       <c r="J4" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K4" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L4" t="n">
-        <v>5.472108905868467e-05</v>
+        <v>6.003537269605452e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.559967924401036</v>
+        <v>6.530590208883393</v>
       </c>
       <c r="N4" t="n">
-        <v>69.77553181741291</v>
+        <v>69.44546850741355</v>
       </c>
       <c r="O4" t="n">
-        <v>8.353174954316048</v>
+        <v>8.333394776884962</v>
       </c>
       <c r="P4" t="n">
-        <v>383.2061258261331</v>
+        <v>383.2022153733905</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26607,28 +26716,28 @@
         <v>0.0653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1949723429915129</v>
+        <v>0.1859895315675998</v>
       </c>
       <c r="J5" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01753095634375845</v>
+        <v>0.01609183314661666</v>
       </c>
       <c r="M5" t="n">
-        <v>7.634302727493729</v>
+        <v>7.636925219182107</v>
       </c>
       <c r="N5" t="n">
-        <v>103.9639748504123</v>
+        <v>103.8377678896107</v>
       </c>
       <c r="O5" t="n">
-        <v>10.19627259592506</v>
+        <v>10.19008183920083</v>
       </c>
       <c r="P5" t="n">
-        <v>363.7561060055647</v>
+        <v>363.8513616018968</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26685,28 +26794,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3030011817585839</v>
+        <v>0.3014675777654912</v>
       </c>
       <c r="J6" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05169844561927739</v>
+        <v>0.05171538009726462</v>
       </c>
       <c r="M6" t="n">
-        <v>6.796089452981942</v>
+        <v>6.772013289013891</v>
       </c>
       <c r="N6" t="n">
-        <v>81.5271444815871</v>
+        <v>81.16559752913125</v>
       </c>
       <c r="O6" t="n">
-        <v>9.02923831126342</v>
+        <v>9.009195165447979</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9428793194365</v>
+        <v>358.9591177459502</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26763,28 +26872,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.294752115466775</v>
+        <v>0.2921739098787746</v>
       </c>
       <c r="J7" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K7" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0576398051853334</v>
+        <v>0.05725020461865993</v>
       </c>
       <c r="M7" t="n">
-        <v>6.298063981148148</v>
+        <v>6.279242215243195</v>
       </c>
       <c r="N7" t="n">
-        <v>67.99896651321235</v>
+        <v>67.71361479920803</v>
       </c>
       <c r="O7" t="n">
-        <v>8.246148586656219</v>
+        <v>8.228828276201178</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9777542655522</v>
+        <v>363.0052438354737</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26841,28 +26950,28 @@
         <v>0.0837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1975354259705525</v>
+        <v>0.1937476166012009</v>
       </c>
       <c r="J8" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02601932878026758</v>
+        <v>0.02530444544786126</v>
       </c>
       <c r="M8" t="n">
-        <v>6.377122772452077</v>
+        <v>6.362994059407697</v>
       </c>
       <c r="N8" t="n">
-        <v>70.65036775154518</v>
+        <v>70.38322199127141</v>
       </c>
       <c r="O8" t="n">
-        <v>8.405377311670499</v>
+        <v>8.389470900555732</v>
       </c>
       <c r="P8" t="n">
-        <v>369.6482400760967</v>
+        <v>369.6882088829706</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26919,28 +27028,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1485752616478881</v>
+        <v>0.1426622917083725</v>
       </c>
       <c r="J9" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K9" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0138429041349506</v>
+        <v>0.01287872406292634</v>
       </c>
       <c r="M9" t="n">
-        <v>6.660013797924494</v>
+        <v>6.658133200339153</v>
       </c>
       <c r="N9" t="n">
-        <v>76.59261167933388</v>
+        <v>76.42175501561394</v>
       </c>
       <c r="O9" t="n">
-        <v>8.751720498241125</v>
+        <v>8.741953729894362</v>
       </c>
       <c r="P9" t="n">
-        <v>375.3438159208258</v>
+        <v>375.406191610036</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26997,28 +27106,28 @@
         <v>0.0814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1492337215342168</v>
+        <v>0.1490172478453519</v>
       </c>
       <c r="J10" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K10" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01413943883931834</v>
+        <v>0.01424820530795301</v>
       </c>
       <c r="M10" t="n">
-        <v>6.54247637148425</v>
+        <v>6.514013365054102</v>
       </c>
       <c r="N10" t="n">
-        <v>75.33119250195338</v>
+        <v>74.99054042106432</v>
       </c>
       <c r="O10" t="n">
-        <v>8.679354382784089</v>
+        <v>8.659707871577673</v>
       </c>
       <c r="P10" t="n">
-        <v>377.7814561762962</v>
+        <v>377.7837354156869</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27075,28 +27184,28 @@
         <v>0.0752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1426900922834252</v>
+        <v>0.1408700723830508</v>
       </c>
       <c r="J11" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K11" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01274703149457157</v>
+        <v>0.01255795271123439</v>
       </c>
       <c r="M11" t="n">
-        <v>6.744140526604094</v>
+        <v>6.721650112154615</v>
       </c>
       <c r="N11" t="n">
-        <v>77.54784260988824</v>
+        <v>77.20566483448727</v>
       </c>
       <c r="O11" t="n">
-        <v>8.806125289245449</v>
+        <v>8.786675414198891</v>
       </c>
       <c r="P11" t="n">
-        <v>380.4050680116741</v>
+        <v>380.4241150789795</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27153,28 +27262,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03581555494044874</v>
+        <v>0.04120396327636377</v>
       </c>
       <c r="J12" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K12" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008069163056468875</v>
+        <v>0.00107767096864364</v>
       </c>
       <c r="M12" t="n">
-        <v>6.761193419084569</v>
+        <v>6.754053918345558</v>
       </c>
       <c r="N12" t="n">
-        <v>77.97662482749551</v>
+        <v>77.74557792962693</v>
       </c>
       <c r="O12" t="n">
-        <v>8.830437408616604</v>
+        <v>8.817345288102702</v>
       </c>
       <c r="P12" t="n">
-        <v>384.5512812199007</v>
+        <v>384.4951153858407</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27231,28 +27340,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04587647579257419</v>
+        <v>0.05202961206377914</v>
       </c>
       <c r="J13" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K13" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001507854730023683</v>
+        <v>0.001953803719878966</v>
       </c>
       <c r="M13" t="n">
-        <v>6.654643113942151</v>
+        <v>6.652878953316538</v>
       </c>
       <c r="N13" t="n">
-        <v>68.80239496463315</v>
+        <v>68.67318792295679</v>
       </c>
       <c r="O13" t="n">
-        <v>8.294720909387678</v>
+        <v>8.286928738860784</v>
       </c>
       <c r="P13" t="n">
-        <v>388.1493294470295</v>
+        <v>388.0850853693181</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27309,28 +27418,28 @@
         <v>0.0717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1145278287816231</v>
+        <v>0.113129415493165</v>
       </c>
       <c r="J14" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K14" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007881679770505245</v>
+        <v>0.007768700578406618</v>
       </c>
       <c r="M14" t="n">
-        <v>7.189624006530896</v>
+        <v>7.162993119037828</v>
       </c>
       <c r="N14" t="n">
-        <v>81.06795254643289</v>
+        <v>80.71225955251386</v>
       </c>
       <c r="O14" t="n">
-        <v>9.003774350039704</v>
+        <v>8.984000197713369</v>
       </c>
       <c r="P14" t="n">
-        <v>385.771814299974</v>
+        <v>385.7866126887673</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27387,28 +27496,28 @@
         <v>0.0732</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2047910772776764</v>
+        <v>0.2038310844599463</v>
       </c>
       <c r="J15" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K15" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02549208388823931</v>
+        <v>0.02550136299232797</v>
       </c>
       <c r="M15" t="n">
-        <v>7.09154797329974</v>
+        <v>7.063185838504857</v>
       </c>
       <c r="N15" t="n">
-        <v>80.16278625405057</v>
+        <v>79.80309943545382</v>
       </c>
       <c r="O15" t="n">
-        <v>8.953367313701062</v>
+        <v>8.933258052662188</v>
       </c>
       <c r="P15" t="n">
-        <v>382.8766958923745</v>
+        <v>382.8868324501276</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27465,28 +27574,28 @@
         <v>0.0735</v>
       </c>
       <c r="I16" t="n">
-        <v>0.202481879502683</v>
+        <v>0.2088717780719439</v>
       </c>
       <c r="J16" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02372075847785848</v>
+        <v>0.02539371380773348</v>
       </c>
       <c r="M16" t="n">
-        <v>7.038850661723703</v>
+        <v>7.038490513402031</v>
       </c>
       <c r="N16" t="n">
-        <v>84.04205425304772</v>
+        <v>83.85390511055736</v>
       </c>
       <c r="O16" t="n">
-        <v>9.167445350426023</v>
+        <v>9.157177791795753</v>
       </c>
       <c r="P16" t="n">
-        <v>383.3363501041465</v>
+        <v>383.268896186322</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27543,28 +27652,28 @@
         <v>0.0759</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1144111991331826</v>
+        <v>0.1222862737976208</v>
       </c>
       <c r="J17" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K17" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009928270416738605</v>
+        <v>0.01139371625801355</v>
       </c>
       <c r="M17" t="n">
-        <v>6.355928315970095</v>
+        <v>6.363854294719212</v>
       </c>
       <c r="N17" t="n">
-        <v>63.35814337412862</v>
+        <v>63.34348307400855</v>
       </c>
       <c r="O17" t="n">
-        <v>7.959782872298002</v>
+        <v>7.958861920777904</v>
       </c>
       <c r="P17" t="n">
-        <v>384.9221727494732</v>
+        <v>384.8378939053814</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27621,28 +27730,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1209856677971262</v>
+        <v>0.1181487393212072</v>
       </c>
       <c r="J18" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K18" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01153921840609173</v>
+        <v>0.01111587309394513</v>
       </c>
       <c r="M18" t="n">
-        <v>6.2647056293387</v>
+        <v>6.248341603454492</v>
       </c>
       <c r="N18" t="n">
-        <v>60.85538918911934</v>
+        <v>60.60904200822686</v>
       </c>
       <c r="O18" t="n">
-        <v>7.800986424108129</v>
+        <v>7.785180923281543</v>
       </c>
       <c r="P18" t="n">
-        <v>382.9150154472293</v>
+        <v>382.9454719711394</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27699,28 +27808,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1729224305905275</v>
+        <v>0.1701429825923626</v>
       </c>
       <c r="J19" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K19" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0220174283794613</v>
+        <v>0.02152942966497429</v>
       </c>
       <c r="M19" t="n">
-        <v>6.406806167648848</v>
+        <v>6.39106657247544</v>
       </c>
       <c r="N19" t="n">
-        <v>64.05355362255598</v>
+        <v>63.79122724471316</v>
       </c>
       <c r="O19" t="n">
-        <v>8.003346401509557</v>
+        <v>7.986941044274282</v>
       </c>
       <c r="P19" t="n">
-        <v>381.4364548240503</v>
+        <v>381.4665821212214</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27777,28 +27886,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2012480059547142</v>
+        <v>0.1960356030825755</v>
       </c>
       <c r="J20" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K20" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03085837997594998</v>
+        <v>0.02954952979713688</v>
       </c>
       <c r="M20" t="n">
-        <v>6.326032212158684</v>
+        <v>6.323108757431251</v>
       </c>
       <c r="N20" t="n">
-        <v>60.89160537667748</v>
+        <v>60.74686925889974</v>
       </c>
       <c r="O20" t="n">
-        <v>7.803307335782533</v>
+        <v>7.794027794337132</v>
       </c>
       <c r="P20" t="n">
-        <v>377.5973124757627</v>
+        <v>377.6538155937591</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27855,28 +27964,28 @@
         <v>0.0774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1536525264155847</v>
+        <v>0.1472241712845239</v>
       </c>
       <c r="J21" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K21" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01879722987909338</v>
+        <v>0.01739357996749469</v>
       </c>
       <c r="M21" t="n">
-        <v>6.210191655737292</v>
+        <v>6.211334231939674</v>
       </c>
       <c r="N21" t="n">
-        <v>59.19410037471787</v>
+        <v>59.12902248199104</v>
       </c>
       <c r="O21" t="n">
-        <v>7.693770231474155</v>
+        <v>7.689539809506876</v>
       </c>
       <c r="P21" t="n">
-        <v>377.5907128964076</v>
+        <v>377.660332874697</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27933,28 +28042,28 @@
         <v>0.0755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1945768513075827</v>
+        <v>0.1849832058249208</v>
       </c>
       <c r="J22" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K22" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02392717071107708</v>
+        <v>0.02175181553849148</v>
       </c>
       <c r="M22" t="n">
-        <v>6.83623983577701</v>
+        <v>6.853051380240354</v>
       </c>
       <c r="N22" t="n">
-        <v>73.34713210660645</v>
+        <v>73.47093989805279</v>
       </c>
       <c r="O22" t="n">
-        <v>8.564294022662139</v>
+        <v>8.571519112622498</v>
       </c>
       <c r="P22" t="n">
-        <v>376.7297442992243</v>
+        <v>376.8344532960343</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28011,28 +28120,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3053158348840183</v>
+        <v>0.2955971825898111</v>
       </c>
       <c r="J23" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K23" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05382057488626046</v>
+        <v>0.05078967131241696</v>
       </c>
       <c r="M23" t="n">
-        <v>7.086938471957017</v>
+        <v>7.100967590108826</v>
       </c>
       <c r="N23" t="n">
-        <v>78.73918967056034</v>
+        <v>78.85883113964451</v>
       </c>
       <c r="O23" t="n">
-        <v>8.873510560683428</v>
+        <v>8.880249497601095</v>
       </c>
       <c r="P23" t="n">
-        <v>375.0062365467303</v>
+        <v>375.1122454616369</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28089,28 +28198,28 @@
         <v>0.068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3329400413453673</v>
+        <v>0.3261430350134839</v>
       </c>
       <c r="J24" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K24" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0672006632482578</v>
+        <v>0.06507855195700996</v>
       </c>
       <c r="M24" t="n">
-        <v>6.668686179267833</v>
+        <v>6.669479685061869</v>
       </c>
       <c r="N24" t="n">
-        <v>72.35001748106532</v>
+        <v>72.24156081494736</v>
       </c>
       <c r="O24" t="n">
-        <v>8.50588134651932</v>
+        <v>8.499503562852796</v>
       </c>
       <c r="P24" t="n">
-        <v>374.9861467551218</v>
+        <v>375.0607746760732</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28167,28 +28276,28 @@
         <v>0.0709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3350715197784504</v>
+        <v>0.3288653531216963</v>
       </c>
       <c r="J25" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06416023449831332</v>
+        <v>0.06244517898323887</v>
       </c>
       <c r="M25" t="n">
-        <v>7.088007850611449</v>
+        <v>7.081955275862433</v>
       </c>
       <c r="N25" t="n">
-        <v>76.64227170178113</v>
+        <v>76.45137616488746</v>
       </c>
       <c r="O25" t="n">
-        <v>8.754557196213931</v>
+        <v>8.743647760796833</v>
       </c>
       <c r="P25" t="n">
-        <v>375.2598429771577</v>
+        <v>375.327556748908</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28245,28 +28354,28 @@
         <v>0.0776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2473740269129478</v>
+        <v>0.2302747654559531</v>
       </c>
       <c r="J26" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K26" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03643448156588736</v>
+        <v>0.03151866149489424</v>
       </c>
       <c r="M26" t="n">
-        <v>7.036024960883844</v>
+        <v>7.0696918908508</v>
       </c>
       <c r="N26" t="n">
-        <v>78.51845293163235</v>
+        <v>79.50741899615969</v>
       </c>
       <c r="O26" t="n">
-        <v>8.861063871321116</v>
+        <v>8.916693277003516</v>
       </c>
       <c r="P26" t="n">
-        <v>372.71141913534</v>
+        <v>372.8944272740317</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28323,28 +28432,28 @@
         <v>0.0764</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3070680916014623</v>
+        <v>0.2815079840552715</v>
       </c>
       <c r="J27" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K27" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04821136192579567</v>
+        <v>0.03992604065903715</v>
       </c>
       <c r="M27" t="n">
-        <v>7.749253947513587</v>
+        <v>7.828198747290932</v>
       </c>
       <c r="N27" t="n">
-        <v>89.05336029555447</v>
+        <v>91.68562578863869</v>
       </c>
       <c r="O27" t="n">
-        <v>9.436808798293757</v>
+        <v>9.575261134227029</v>
       </c>
       <c r="P27" t="n">
-        <v>372.0383427097305</v>
+        <v>372.3137260897007</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28401,28 +28510,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2724105177592621</v>
+        <v>0.254083214159477</v>
       </c>
       <c r="J28" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K28" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03590175532872342</v>
+        <v>0.03119089301511579</v>
       </c>
       <c r="M28" t="n">
-        <v>7.888877996433995</v>
+        <v>7.936729580880129</v>
       </c>
       <c r="N28" t="n">
-        <v>93.84266991715458</v>
+        <v>94.96166639878264</v>
       </c>
       <c r="O28" t="n">
-        <v>9.687242637466793</v>
+        <v>9.74482767414502</v>
       </c>
       <c r="P28" t="n">
-        <v>377.2271624689333</v>
+        <v>377.4274141514006</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28479,28 +28588,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2678638975508683</v>
+        <v>0.2527274244671384</v>
       </c>
       <c r="J29" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K29" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02855035303171849</v>
+        <v>0.02552450321023503</v>
       </c>
       <c r="M29" t="n">
-        <v>8.420374655311974</v>
+        <v>8.451003123880648</v>
       </c>
       <c r="N29" t="n">
-        <v>115.984326693857</v>
+        <v>116.4964143277346</v>
       </c>
       <c r="O29" t="n">
-        <v>10.76960197471833</v>
+        <v>10.79335046812317</v>
       </c>
       <c r="P29" t="n">
-        <v>389.7026453126187</v>
+        <v>389.8676487047637</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28557,28 +28666,28 @@
         <v>0.0738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02628741124812545</v>
+        <v>0.003519015588303361</v>
       </c>
       <c r="J30" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K30" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0002006850928643056</v>
+        <v>3.584873002560052e-06</v>
       </c>
       <c r="M30" t="n">
-        <v>9.818275116989339</v>
+        <v>9.868567998950688</v>
       </c>
       <c r="N30" t="n">
-        <v>156.4015215993952</v>
+        <v>157.8593657288821</v>
       </c>
       <c r="O30" t="n">
-        <v>12.50605939532494</v>
+        <v>12.56420971366214</v>
       </c>
       <c r="P30" t="n">
-        <v>398.1621633366834</v>
+        <v>398.4167813375936</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28616,7 +28725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE257"/>
+  <dimension ref="A1:AE258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64281,6 +64390,163 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>-35.69454246127016,174.51472453983524</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>-35.6952594743761,174.514911730836</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>-35.69598577978469,174.5148210644507</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>-35.6967320208173,174.51480023088575</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>-35.69741901022503,174.5151068473232</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>-35.69811223976225,174.51538733081495</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-35.69880445652461,174.51566951912523</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>-35.69949449136053,174.51595206486647</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>-35.70015755833358,174.51633101211985</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>-35.70084495935144,174.5166316071126</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>-35.701509136116606,174.5170125794849</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>-35.70217712735404,174.51735200376694</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>-35.702874992645505,174.51759687880028</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>-35.70354959495252,174.51793614941448</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>-35.70419265715074,174.51835730419327</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>-35.704846204931755,174.51871850564575</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>-35.70553833816165,174.518999111788</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>-35.706173860478756,174.51942177199086</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>-35.706820539568874,174.51983150595768</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>-35.7074562537118,174.52027357642092</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>-35.70809478855601,174.52070941684033</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>-35.70871108185903,174.5211889496899</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>-35.70931109557912,174.5216987134605</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>-35.709913492567814,174.52218860917978</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>-35.71057497168243,174.52259380190728</t>
+        </is>
+      </c>
+      <c r="AA258" t="inlineStr">
+        <is>
+          <t>-35.7111974188492,174.5230722972213</t>
+        </is>
+      </c>
+      <c r="AB258" t="inlineStr">
+        <is>
+          <t>-35.71170978541637,174.52372250135858</t>
+        </is>
+      </c>
+      <c r="AC258" t="inlineStr">
+        <is>
+          <t>-35.712194212353815,174.52441211762513</t>
+        </is>
+      </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>-35.712787431662214,174.52493598914413</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE258"/>
+  <dimension ref="A1:AE259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23690,6 +23690,105 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>393.35</v>
+      </c>
+      <c r="C259" t="n">
+        <v>407.7244444444444</v>
+      </c>
+      <c r="D259" t="n">
+        <v>390.9122222222222</v>
+      </c>
+      <c r="E259" t="n">
+        <v>369.6133333333333</v>
+      </c>
+      <c r="F259" t="n">
+        <v>363.125</v>
+      </c>
+      <c r="G259" t="n">
+        <v>375.1742857142857</v>
+      </c>
+      <c r="H259" t="n">
+        <v>371.4966666666666</v>
+      </c>
+      <c r="I259" t="n">
+        <v>379.845</v>
+      </c>
+      <c r="J259" t="n">
+        <v>389.5366666666666</v>
+      </c>
+      <c r="K259" t="n">
+        <v>390.7642857142857</v>
+      </c>
+      <c r="L259" t="n">
+        <v>395.2242857142857</v>
+      </c>
+      <c r="M259" t="n">
+        <v>396.0507692307692</v>
+      </c>
+      <c r="N259" t="n">
+        <v>399.7907692307692</v>
+      </c>
+      <c r="O259" t="n">
+        <v>396.4707692307693</v>
+      </c>
+      <c r="P259" t="n">
+        <v>397.6007692307692</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>395.2042857142857</v>
+      </c>
+      <c r="R259" t="n">
+        <v>389.6966666666667</v>
+      </c>
+      <c r="S259" t="n">
+        <v>387.6066666666666</v>
+      </c>
+      <c r="T259" t="n">
+        <v>384.3166666666667</v>
+      </c>
+      <c r="U259" t="n">
+        <v>382.4042857142857</v>
+      </c>
+      <c r="V259" t="n">
+        <v>382.8542857142857</v>
+      </c>
+      <c r="W259" t="n">
+        <v>382.0707692307692</v>
+      </c>
+      <c r="X259" t="n">
+        <v>386.9507692307693</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>378.7007692307693</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>374.0142857142857</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>381.4942857142857</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>381.9042857142857</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>402.2607692307692</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>401.3833333333333</v>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23701,7 +23800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26309,6 +26408,16 @@
       </c>
       <c r="B260" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -26482,28 +26591,28 @@
         <v>0.0425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1110584947202457</v>
+        <v>0.1109406793252225</v>
       </c>
       <c r="J2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K2" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00532896563407903</v>
+        <v>0.005369584374782965</v>
       </c>
       <c r="M2" t="n">
-        <v>8.009784164187547</v>
+        <v>7.972779366529638</v>
       </c>
       <c r="N2" t="n">
-        <v>114.568611243383</v>
+        <v>114.0308012436384</v>
       </c>
       <c r="O2" t="n">
-        <v>10.70367279224206</v>
+        <v>10.67852055500379</v>
       </c>
       <c r="P2" t="n">
-        <v>390.5984908884676</v>
+        <v>390.5997648045857</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26560,28 +26669,28 @@
         <v>0.0484</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02676659044975246</v>
+        <v>-0.01995053045094946</v>
       </c>
       <c r="J3" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003883858112843086</v>
+        <v>0.0002175917855163911</v>
       </c>
       <c r="M3" t="n">
-        <v>7.384047975385037</v>
+        <v>7.380898322304305</v>
       </c>
       <c r="N3" t="n">
-        <v>91.98129450590716</v>
+        <v>91.74178828139526</v>
       </c>
       <c r="O3" t="n">
-        <v>9.590687905771262</v>
+        <v>9.578193372520481</v>
       </c>
       <c r="P3" t="n">
-        <v>401.7442876635167</v>
+        <v>401.67122421765</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26638,28 +26747,28 @@
         <v>0.1028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009194221645826273</v>
+        <v>0.016689946211633</v>
       </c>
       <c r="J4" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L4" t="n">
-        <v>6.003537269605452e-05</v>
+        <v>0.0001991793423040678</v>
       </c>
       <c r="M4" t="n">
-        <v>6.530590208883393</v>
+        <v>6.534004565451243</v>
       </c>
       <c r="N4" t="n">
-        <v>69.44546850741355</v>
+        <v>69.37721660158249</v>
       </c>
       <c r="O4" t="n">
-        <v>8.333394776884962</v>
+        <v>8.329298686058898</v>
       </c>
       <c r="P4" t="n">
-        <v>383.2022153733905</v>
+        <v>383.1225008370327</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26716,28 +26825,28 @@
         <v>0.0653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1859895315675998</v>
+        <v>0.1869443720099965</v>
       </c>
       <c r="J5" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K5" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01609183314661666</v>
+        <v>0.0164270331214913</v>
       </c>
       <c r="M5" t="n">
-        <v>7.636925219182107</v>
+        <v>7.605611842548264</v>
       </c>
       <c r="N5" t="n">
-        <v>103.8377678896107</v>
+        <v>103.3521311614711</v>
       </c>
       <c r="O5" t="n">
-        <v>10.19008183920083</v>
+        <v>10.16622502020642</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8513616018968</v>
+        <v>363.8411901885813</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26794,28 +26903,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3014675777654912</v>
+        <v>0.2978712206881191</v>
       </c>
       <c r="J6" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05171538009726462</v>
+        <v>0.05102819261647462</v>
       </c>
       <c r="M6" t="n">
-        <v>6.772013289013891</v>
+        <v>6.757559311079287</v>
       </c>
       <c r="N6" t="n">
-        <v>81.16559752913125</v>
+        <v>80.85594294972954</v>
       </c>
       <c r="O6" t="n">
-        <v>9.009195165447979</v>
+        <v>8.991993268999346</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9591177459502</v>
+        <v>358.9973666252464</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26872,28 +26981,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2921739098787746</v>
+        <v>0.2968204914612712</v>
       </c>
       <c r="J7" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K7" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05725020461865993</v>
+        <v>0.05950070455287471</v>
       </c>
       <c r="M7" t="n">
-        <v>6.279242215243195</v>
+        <v>6.27398023527519</v>
       </c>
       <c r="N7" t="n">
-        <v>67.71361479920803</v>
+        <v>67.49779379310158</v>
       </c>
       <c r="O7" t="n">
-        <v>8.228828276201178</v>
+        <v>8.215704096004284</v>
       </c>
       <c r="P7" t="n">
-        <v>363.0052438354737</v>
+        <v>362.9554827866661</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26950,28 +27059,28 @@
         <v>0.0837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1937476166012009</v>
+        <v>0.1904824600117055</v>
       </c>
       <c r="J8" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K8" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02530444544786126</v>
+        <v>0.02472791451656731</v>
       </c>
       <c r="M8" t="n">
-        <v>6.362994059407697</v>
+        <v>6.346858767126385</v>
       </c>
       <c r="N8" t="n">
-        <v>70.38322199127141</v>
+        <v>70.10296466555364</v>
       </c>
       <c r="O8" t="n">
-        <v>8.389470900555732</v>
+        <v>8.372751319939798</v>
       </c>
       <c r="P8" t="n">
-        <v>369.6882088829706</v>
+        <v>369.7228142301595</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27028,28 +27137,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1426622917083725</v>
+        <v>0.1433707669504416</v>
       </c>
       <c r="J9" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K9" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01287872406292634</v>
+        <v>0.01313706137056259</v>
       </c>
       <c r="M9" t="n">
-        <v>6.658133200339153</v>
+        <v>6.632067878070065</v>
       </c>
       <c r="N9" t="n">
-        <v>76.42175501561394</v>
+        <v>76.08897344197922</v>
       </c>
       <c r="O9" t="n">
-        <v>8.741953729894362</v>
+        <v>8.722899371308786</v>
       </c>
       <c r="P9" t="n">
-        <v>375.406191610036</v>
+        <v>375.3986845498023</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27106,28 +27215,28 @@
         <v>0.0814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1490172478453519</v>
+        <v>0.1567949641586756</v>
       </c>
       <c r="J10" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K10" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01424820530795301</v>
+        <v>0.01585902128936645</v>
       </c>
       <c r="M10" t="n">
-        <v>6.514013365054102</v>
+        <v>6.515427723398616</v>
       </c>
       <c r="N10" t="n">
-        <v>74.99054042106432</v>
+        <v>74.92928023563582</v>
       </c>
       <c r="O10" t="n">
-        <v>8.659707871577673</v>
+        <v>8.656170067393305</v>
       </c>
       <c r="P10" t="n">
-        <v>377.7837354156869</v>
+        <v>377.7014834975749</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27184,28 +27293,28 @@
         <v>0.0752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1408700723830508</v>
+        <v>0.1474952443849951</v>
       </c>
       <c r="J11" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01255795271123439</v>
+        <v>0.01386073352797634</v>
       </c>
       <c r="M11" t="n">
-        <v>6.721650112154615</v>
+        <v>6.720475571764291</v>
       </c>
       <c r="N11" t="n">
-        <v>77.20566483448727</v>
+        <v>77.05388035939961</v>
       </c>
       <c r="O11" t="n">
-        <v>8.786675414198891</v>
+        <v>8.778033968913519</v>
       </c>
       <c r="P11" t="n">
-        <v>380.4241150789795</v>
+        <v>380.3544692285133</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27262,28 +27371,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04120396327636377</v>
+        <v>0.05090128769807336</v>
       </c>
       <c r="J12" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K12" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00107767096864364</v>
+        <v>0.001652769583625702</v>
       </c>
       <c r="M12" t="n">
-        <v>6.754053918345558</v>
+        <v>6.76577946701256</v>
       </c>
       <c r="N12" t="n">
-        <v>77.74557792962693</v>
+        <v>77.81088803193209</v>
       </c>
       <c r="O12" t="n">
-        <v>8.817345288102702</v>
+        <v>8.821048012108998</v>
       </c>
       <c r="P12" t="n">
-        <v>384.4951153858407</v>
+        <v>384.3935878589294</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27340,28 +27449,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05202961206377914</v>
+        <v>0.05839174128708668</v>
       </c>
       <c r="J13" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K13" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001953803719878966</v>
+        <v>0.002478371296656401</v>
       </c>
       <c r="M13" t="n">
-        <v>6.652878953316538</v>
+        <v>6.65176717205334</v>
       </c>
       <c r="N13" t="n">
-        <v>68.67318792295679</v>
+        <v>68.55928279442854</v>
       </c>
       <c r="O13" t="n">
-        <v>8.286928738860784</v>
+        <v>8.280053308670697</v>
       </c>
       <c r="P13" t="n">
-        <v>388.0850853693181</v>
+        <v>388.0183598226603</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27418,28 +27527,28 @@
         <v>0.0717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.113129415493165</v>
+        <v>0.1236836357658682</v>
       </c>
       <c r="J14" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K14" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007768700578406618</v>
+        <v>0.009303337849013493</v>
       </c>
       <c r="M14" t="n">
-        <v>7.162993119037828</v>
+        <v>7.18601689017407</v>
       </c>
       <c r="N14" t="n">
-        <v>80.71225955251386</v>
+        <v>80.89238174304147</v>
       </c>
       <c r="O14" t="n">
-        <v>8.984000197713369</v>
+        <v>8.99401922074005</v>
       </c>
       <c r="P14" t="n">
-        <v>385.7866126887673</v>
+        <v>385.6744118323973</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27496,28 +27605,28 @@
         <v>0.0732</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2038310844599463</v>
+        <v>0.2115957565675584</v>
       </c>
       <c r="J15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K15" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02550136299232797</v>
+        <v>0.02758699755250604</v>
       </c>
       <c r="M15" t="n">
-        <v>7.063185838504857</v>
+        <v>7.074516601561962</v>
       </c>
       <c r="N15" t="n">
-        <v>79.80309943545382</v>
+        <v>79.74978019251208</v>
       </c>
       <c r="O15" t="n">
-        <v>8.933258052662188</v>
+        <v>8.930273242880762</v>
       </c>
       <c r="P15" t="n">
-        <v>382.8868324501276</v>
+        <v>382.8044525159812</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27574,28 +27683,28 @@
         <v>0.0735</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2088717780719439</v>
+        <v>0.2174272512068676</v>
       </c>
       <c r="J16" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02539371380773348</v>
+        <v>0.02761406903457986</v>
       </c>
       <c r="M16" t="n">
-        <v>7.038490513402031</v>
+        <v>7.048583144255824</v>
       </c>
       <c r="N16" t="n">
-        <v>83.85390511055736</v>
+        <v>83.82912885614806</v>
       </c>
       <c r="O16" t="n">
-        <v>9.157177791795753</v>
+        <v>9.155824859407701</v>
       </c>
       <c r="P16" t="n">
-        <v>383.268896186322</v>
+        <v>383.1781536449759</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27652,28 +27761,28 @@
         <v>0.0759</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1222862737976208</v>
+        <v>0.1295004999400657</v>
       </c>
       <c r="J17" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K17" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01139371625801355</v>
+        <v>0.01284525245115098</v>
       </c>
       <c r="M17" t="n">
-        <v>6.363854294719212</v>
+        <v>6.368353612047195</v>
       </c>
       <c r="N17" t="n">
-        <v>63.34348307400855</v>
+        <v>63.28554664711799</v>
       </c>
       <c r="O17" t="n">
-        <v>7.958861920777904</v>
+        <v>7.955221344948108</v>
       </c>
       <c r="P17" t="n">
-        <v>384.8378939053814</v>
+        <v>384.7603325166342</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27730,28 +27839,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1181487393212072</v>
+        <v>0.1217776059507327</v>
       </c>
       <c r="J18" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K18" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01111587309394513</v>
+        <v>0.0119094643287142</v>
       </c>
       <c r="M18" t="n">
-        <v>6.248341603454492</v>
+        <v>6.236912346550552</v>
       </c>
       <c r="N18" t="n">
-        <v>60.60904200822686</v>
+        <v>60.38961226527891</v>
       </c>
       <c r="O18" t="n">
-        <v>7.785180923281543</v>
+        <v>7.771075360931645</v>
       </c>
       <c r="P18" t="n">
-        <v>382.9454719711394</v>
+        <v>382.9063328477013</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27808,28 +27917,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1701429825923626</v>
+        <v>0.1718377365423696</v>
       </c>
       <c r="J19" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K19" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02152942966497429</v>
+        <v>0.02216408443573981</v>
       </c>
       <c r="M19" t="n">
-        <v>6.39106657247544</v>
+        <v>6.368721366739572</v>
       </c>
       <c r="N19" t="n">
-        <v>63.79122724471316</v>
+        <v>63.50832350989829</v>
       </c>
       <c r="O19" t="n">
-        <v>7.986941044274282</v>
+        <v>7.969210971601786</v>
       </c>
       <c r="P19" t="n">
-        <v>381.4665821212214</v>
+        <v>381.4481261652901</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27886,28 +27995,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1960356030825755</v>
+        <v>0.1975578835041945</v>
       </c>
       <c r="J20" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02954952979713688</v>
+        <v>0.03028247577211529</v>
       </c>
       <c r="M20" t="n">
-        <v>6.323108757431251</v>
+        <v>6.301321932989054</v>
       </c>
       <c r="N20" t="n">
-        <v>60.74686925889974</v>
+        <v>60.48442579707562</v>
       </c>
       <c r="O20" t="n">
-        <v>7.794027794337132</v>
+        <v>7.777173380931893</v>
       </c>
       <c r="P20" t="n">
-        <v>377.6538155937591</v>
+        <v>377.6372381400221</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27964,28 +28073,28 @@
         <v>0.0774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1472241712845239</v>
+        <v>0.1481105287014725</v>
       </c>
       <c r="J21" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K21" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01739357996749469</v>
+        <v>0.01777037227301748</v>
       </c>
       <c r="M21" t="n">
-        <v>6.211334231939674</v>
+        <v>6.187732442097276</v>
       </c>
       <c r="N21" t="n">
-        <v>59.12902248199104</v>
+        <v>58.86771321773027</v>
       </c>
       <c r="O21" t="n">
-        <v>7.689539809506876</v>
+        <v>7.672529779527107</v>
       </c>
       <c r="P21" t="n">
-        <v>377.660332874697</v>
+        <v>377.6506891709153</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28042,28 +28151,28 @@
         <v>0.0755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1849832058249208</v>
+        <v>0.1861445971898011</v>
       </c>
       <c r="J22" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K22" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02175181553849148</v>
+        <v>0.02222872814188426</v>
       </c>
       <c r="M22" t="n">
-        <v>6.853051380240354</v>
+        <v>6.827769808553271</v>
       </c>
       <c r="N22" t="n">
-        <v>73.47093989805279</v>
+        <v>73.15245559372872</v>
       </c>
       <c r="O22" t="n">
-        <v>8.571519112622498</v>
+        <v>8.552920880829468</v>
       </c>
       <c r="P22" t="n">
-        <v>376.8344532960343</v>
+        <v>376.8217193265738</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28120,28 +28229,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2955971825898111</v>
+        <v>0.2949464440735629</v>
       </c>
       <c r="J23" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K23" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05078967131241696</v>
+        <v>0.05103921707227865</v>
       </c>
       <c r="M23" t="n">
-        <v>7.100967590108826</v>
+        <v>7.072156003553919</v>
       </c>
       <c r="N23" t="n">
-        <v>78.85883113964451</v>
+        <v>78.50733506020751</v>
       </c>
       <c r="O23" t="n">
-        <v>8.880249497601095</v>
+        <v>8.860436505060431</v>
       </c>
       <c r="P23" t="n">
-        <v>375.1122454616369</v>
+        <v>375.1193770662694</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28198,28 +28307,28 @@
         <v>0.068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3261430350134839</v>
+        <v>0.3294741860050931</v>
       </c>
       <c r="J24" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K24" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06507855195700996</v>
+        <v>0.06689931004618133</v>
       </c>
       <c r="M24" t="n">
-        <v>6.669479685061869</v>
+        <v>6.655095576853653</v>
       </c>
       <c r="N24" t="n">
-        <v>72.24156081494736</v>
+        <v>71.96888416879297</v>
       </c>
       <c r="O24" t="n">
-        <v>8.499503562852796</v>
+        <v>8.483447658163099</v>
       </c>
       <c r="P24" t="n">
-        <v>375.0607746760732</v>
+        <v>375.0240341373131</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28276,28 +28385,28 @@
         <v>0.0709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3288653531216963</v>
+        <v>0.3236125136955983</v>
       </c>
       <c r="J25" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K25" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06244517898323887</v>
+        <v>0.06110574997081086</v>
       </c>
       <c r="M25" t="n">
-        <v>7.081955275862433</v>
+        <v>7.071919264518811</v>
       </c>
       <c r="N25" t="n">
-        <v>76.45137616488746</v>
+        <v>76.21573826877463</v>
       </c>
       <c r="O25" t="n">
-        <v>8.743647760796833</v>
+        <v>8.730162556835619</v>
       </c>
       <c r="P25" t="n">
-        <v>375.327556748908</v>
+        <v>375.3851218274326</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28354,28 +28463,28 @@
         <v>0.0776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2302747654559531</v>
+        <v>0.2254653296202649</v>
       </c>
       <c r="J26" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K26" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03151866149489424</v>
+        <v>0.030523510173184</v>
       </c>
       <c r="M26" t="n">
-        <v>7.0696918908508</v>
+        <v>7.055564576487962</v>
       </c>
       <c r="N26" t="n">
-        <v>79.50741899615969</v>
+        <v>79.24378654116487</v>
       </c>
       <c r="O26" t="n">
-        <v>8.916693277003516</v>
+        <v>8.901897917925417</v>
       </c>
       <c r="P26" t="n">
-        <v>372.8944272740317</v>
+        <v>372.9461375787502</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28432,28 +28541,28 @@
         <v>0.0764</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2815079840552715</v>
+        <v>0.2833611562313866</v>
       </c>
       <c r="J27" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03992604065903715</v>
+        <v>0.0408270196337801</v>
       </c>
       <c r="M27" t="n">
-        <v>7.828198747290932</v>
+        <v>7.801344859475915</v>
       </c>
       <c r="N27" t="n">
-        <v>91.68562578863869</v>
+        <v>91.28491369632734</v>
       </c>
       <c r="O27" t="n">
-        <v>9.575261134227029</v>
+        <v>9.554313878888809</v>
       </c>
       <c r="P27" t="n">
-        <v>372.3137260897007</v>
+        <v>372.2936701196776</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28510,28 +28619,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.254083214159477</v>
+        <v>0.2520120668224403</v>
       </c>
       <c r="J28" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K28" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03119089301511579</v>
+        <v>0.03099968338120951</v>
       </c>
       <c r="M28" t="n">
-        <v>7.936729580880129</v>
+        <v>7.90983757700809</v>
       </c>
       <c r="N28" t="n">
-        <v>94.96166639878264</v>
+        <v>94.54791358064121</v>
       </c>
       <c r="O28" t="n">
-        <v>9.74482767414502</v>
+        <v>9.723575143980799</v>
       </c>
       <c r="P28" t="n">
-        <v>377.4274141514006</v>
+        <v>377.4501461335318</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28588,28 +28697,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2527274244671384</v>
+        <v>0.2585607286028363</v>
       </c>
       <c r="J29" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K29" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02552450321023503</v>
+        <v>0.02691842358476204</v>
       </c>
       <c r="M29" t="n">
-        <v>8.451003123880648</v>
+        <v>8.43874893313388</v>
       </c>
       <c r="N29" t="n">
-        <v>116.4964143277346</v>
+        <v>116.1095872246791</v>
       </c>
       <c r="O29" t="n">
-        <v>10.79335046812317</v>
+        <v>10.77541587247003</v>
       </c>
       <c r="P29" t="n">
-        <v>389.8676487047637</v>
+        <v>389.8037688132598</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28666,28 +28775,28 @@
         <v>0.0738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003519015588303361</v>
+        <v>0.006530446237064771</v>
       </c>
       <c r="J30" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K30" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" t="n">
-        <v>3.584873002560052e-06</v>
+        <v>1.247530948078612e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>9.868567998950688</v>
+        <v>9.835856393766841</v>
       </c>
       <c r="N30" t="n">
-        <v>157.8593657288821</v>
+        <v>157.1464224670873</v>
       </c>
       <c r="O30" t="n">
-        <v>12.56420971366214</v>
+        <v>12.53580561699516</v>
       </c>
       <c r="P30" t="n">
-        <v>398.4167813375936</v>
+        <v>398.3829570038669</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28725,7 +28834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE258"/>
+  <dimension ref="A1:AE259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64547,6 +64656,163 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>-35.694540424453045,174.514746832658</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>-35.69525178404999,174.51499590008413</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>-35.69597338265557,174.51489817507266</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>-35.69670745146085,174.51490302681594</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>-35.6974244258734,174.51508478375035</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-35.69809369392858,174.51546288722193</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>-35.69880324194659,174.51567434105684</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>-35.6994748171559,174.51602399399007</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>-35.70013310373297,174.5164156690887</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>-35.7008193510747,174.5167202580166</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>-35.70149586544969,174.51705851994635</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>-35.70217600561006,174.51735559172013</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>-35.70283151131495,174.51772465428368</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>-35.703516909370784,174.51803124751126</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>-35.70418396503804,174.5183816860619</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>-35.70484814180286,174.51871363869927</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>-35.70551038813638,174.51906270948913</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>-35.70615312785021,174.51946511800097</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>-35.70678755169422,174.51989676362578</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>-35.70742021064837,174.52034487804528</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>-35.708041131011214,174.5208147932231</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>-35.70866527723496,174.5212780264941</t>
+        </is>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>-35.70926053484411,174.52179534658288</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>-35.70990904492588,174.52219622766717</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>-35.710507859137635,174.5226986632842</t>
+        </is>
+      </c>
+      <c r="AA259" t="inlineStr">
+        <is>
+          <t>-35.71104421679422,174.52331167081624</t>
+        </is>
+      </c>
+      <c r="AB259" t="inlineStr">
+        <is>
+          <t>-35.711619284950466,174.5238626019327</t>
+        </is>
+      </c>
+      <c r="AC259" t="inlineStr">
+        <is>
+          <t>-35.71207659708783,174.52459069905115</t>
+        </is>
+      </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>-35.712649634288475,174.52514310909874</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE259"/>
+  <dimension ref="A1:AE262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23789,6 +23789,303 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>388.33</v>
+      </c>
+      <c r="C260" t="n">
+        <v>390.8433333333333</v>
+      </c>
+      <c r="D260" t="n">
+        <v>376.0166666666667</v>
+      </c>
+      <c r="E260" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="F260" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="G260" t="n">
+        <v>352.1157142857143</v>
+      </c>
+      <c r="H260" t="n">
+        <v>356.37</v>
+      </c>
+      <c r="I260" t="n">
+        <v>371.29</v>
+      </c>
+      <c r="J260" t="n">
+        <v>371.96</v>
+      </c>
+      <c r="K260" t="n">
+        <v>380.2557142857143</v>
+      </c>
+      <c r="L260" t="n">
+        <v>388.5657142857143</v>
+      </c>
+      <c r="M260" t="n">
+        <v>389.5838461538461</v>
+      </c>
+      <c r="N260" t="n">
+        <v>388.2338461538461</v>
+      </c>
+      <c r="O260" t="n">
+        <v>387.8538461538461</v>
+      </c>
+      <c r="P260" t="n">
+        <v>388.1338461538462</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>388.2057142857143</v>
+      </c>
+      <c r="R260" t="n">
+        <v>383.3</v>
+      </c>
+      <c r="S260" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="T260" t="n">
+        <v>377.13</v>
+      </c>
+      <c r="U260" t="n">
+        <v>373.3357142857143</v>
+      </c>
+      <c r="V260" t="n">
+        <v>375.3757142857143</v>
+      </c>
+      <c r="W260" t="n">
+        <v>375.0738461538461</v>
+      </c>
+      <c r="X260" t="n">
+        <v>379.3138461538462</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>381.6738461538461</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>370.4157142857143</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>367.0057142857143</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>372.0657142857143</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>394.8238461538461</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>393.83</v>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>389.11</v>
+      </c>
+      <c r="C261" t="n">
+        <v>396.17</v>
+      </c>
+      <c r="D261" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>364.66</v>
+      </c>
+      <c r="F261" t="n">
+        <v>354.085</v>
+      </c>
+      <c r="G261" t="n">
+        <v>357.9657142857143</v>
+      </c>
+      <c r="H261" t="n">
+        <v>357.65</v>
+      </c>
+      <c r="I261" t="n">
+        <v>367.335</v>
+      </c>
+      <c r="J261" t="n">
+        <v>364.38</v>
+      </c>
+      <c r="K261" t="n">
+        <v>372.5257142857143</v>
+      </c>
+      <c r="L261" t="n">
+        <v>382.2757142857143</v>
+      </c>
+      <c r="M261" t="n">
+        <v>387.1246153846154</v>
+      </c>
+      <c r="N261" t="n">
+        <v>390.4146153846153</v>
+      </c>
+      <c r="O261" t="n">
+        <v>381.3846153846154</v>
+      </c>
+      <c r="P261" t="n">
+        <v>387.2546153846154</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>389.6257142857143</v>
+      </c>
+      <c r="R261" t="n">
+        <v>379.99</v>
+      </c>
+      <c r="S261" t="n">
+        <v>380.52</v>
+      </c>
+      <c r="T261" t="n">
+        <v>376.58</v>
+      </c>
+      <c r="U261" t="n">
+        <v>371.7657142857143</v>
+      </c>
+      <c r="V261" t="n">
+        <v>375.8457142857143</v>
+      </c>
+      <c r="W261" t="n">
+        <v>370.9346153846154</v>
+      </c>
+      <c r="X261" t="n">
+        <v>378.3946153846153</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>383.0446153846154</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>366.2457142857143</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>363.0157142857143</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>378.9557142857143</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>396.3646153846154</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>396.54</v>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>391.63</v>
+      </c>
+      <c r="C262" t="n">
+        <v>394.3988888888889</v>
+      </c>
+      <c r="D262" t="n">
+        <v>377.2744444444445</v>
+      </c>
+      <c r="E262" t="n">
+        <v>361.2766666666667</v>
+      </c>
+      <c r="F262" t="n">
+        <v>367.23</v>
+      </c>
+      <c r="G262" t="n">
+        <v>350.4271428571428</v>
+      </c>
+      <c r="H262" t="n">
+        <v>354.9333333333333</v>
+      </c>
+      <c r="I262" t="n">
+        <v>369.03</v>
+      </c>
+      <c r="J262" t="n">
+        <v>371.4033333333333</v>
+      </c>
+      <c r="K262" t="n">
+        <v>374.0371428571429</v>
+      </c>
+      <c r="L262" t="n">
+        <v>382.7671428571429</v>
+      </c>
+      <c r="M262" t="n">
+        <v>383.5176923076923</v>
+      </c>
+      <c r="N262" t="n">
+        <v>385.2476923076923</v>
+      </c>
+      <c r="O262" t="n">
+        <v>383.9376923076923</v>
+      </c>
+      <c r="P262" t="n">
+        <v>384.8676923076923</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>392.9571428571429</v>
+      </c>
+      <c r="R262" t="n">
+        <v>385.5933333333333</v>
+      </c>
+      <c r="S262" t="n">
+        <v>380.7233333333333</v>
+      </c>
+      <c r="T262" t="n">
+        <v>379.4333333333333</v>
+      </c>
+      <c r="U262" t="n">
+        <v>374.3471428571429</v>
+      </c>
+      <c r="V262" t="n">
+        <v>374.7371428571428</v>
+      </c>
+      <c r="W262" t="n">
+        <v>370.2276923076923</v>
+      </c>
+      <c r="X262" t="n">
+        <v>378.5576923076923</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>374.4676923076924</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>371.0471428571428</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>356.7171428571428</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>376.7971428571428</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>388.9276923076923</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>386.3866666666667</v>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23800,7 +24097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26418,6 +26715,36 @@
       </c>
       <c r="B261" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -26591,28 +26918,28 @@
         <v>0.0425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1109406793252225</v>
+        <v>0.100503873169205</v>
       </c>
       <c r="J2" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K2" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005369584374782965</v>
+        <v>0.004529470918345435</v>
       </c>
       <c r="M2" t="n">
-        <v>7.972779366529638</v>
+        <v>7.914455199843615</v>
       </c>
       <c r="N2" t="n">
-        <v>114.0308012436384</v>
+        <v>112.6656308234725</v>
       </c>
       <c r="O2" t="n">
-        <v>10.67852055500379</v>
+        <v>10.61440675796215</v>
       </c>
       <c r="P2" t="n">
-        <v>390.5997648045857</v>
+        <v>390.7129138764054</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26669,28 +26996,28 @@
         <v>0.0484</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01995053045094946</v>
+        <v>-0.04159192821995167</v>
       </c>
       <c r="J3" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002175917855163911</v>
+        <v>0.0009658705288078107</v>
       </c>
       <c r="M3" t="n">
-        <v>7.380898322304305</v>
+        <v>7.374361411273765</v>
       </c>
       <c r="N3" t="n">
-        <v>91.74178828139526</v>
+        <v>91.22355004255249</v>
       </c>
       <c r="O3" t="n">
-        <v>9.578193372520481</v>
+        <v>9.551102032883561</v>
       </c>
       <c r="P3" t="n">
-        <v>401.67122421765</v>
+        <v>401.9038358874257</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26747,28 +27074,28 @@
         <v>0.1028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.016689946211633</v>
+        <v>-0.001807538908860852</v>
       </c>
       <c r="J4" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K4" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001991793423040678</v>
+        <v>2.39130729862147e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.534004565451243</v>
+        <v>6.531508263485347</v>
       </c>
       <c r="N4" t="n">
-        <v>69.37721660158249</v>
+        <v>68.96520740808971</v>
       </c>
       <c r="O4" t="n">
-        <v>8.329298686058898</v>
+        <v>8.304529330918744</v>
       </c>
       <c r="P4" t="n">
-        <v>383.1225008370327</v>
+        <v>383.3197414318444</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26825,28 +27152,28 @@
         <v>0.0653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1869443720099965</v>
+        <v>0.1672222443048107</v>
       </c>
       <c r="J5" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K5" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0164270331214913</v>
+        <v>0.01351423218003489</v>
       </c>
       <c r="M5" t="n">
-        <v>7.605611842548264</v>
+        <v>7.58603258378242</v>
       </c>
       <c r="N5" t="n">
-        <v>103.3521311614711</v>
+        <v>102.5808228188009</v>
       </c>
       <c r="O5" t="n">
-        <v>10.16622502020642</v>
+        <v>10.12821913362862</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8411901885813</v>
+        <v>364.0518358894445</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26903,28 +27230,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2978712206881191</v>
+        <v>0.2774711928375215</v>
       </c>
       <c r="J6" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K6" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05102819261647462</v>
+        <v>0.04533658218706027</v>
       </c>
       <c r="M6" t="n">
-        <v>6.757559311079287</v>
+        <v>6.764975911865755</v>
       </c>
       <c r="N6" t="n">
-        <v>80.85594294972954</v>
+        <v>80.84581746398044</v>
       </c>
       <c r="O6" t="n">
-        <v>8.991993268999346</v>
+        <v>8.99143022349506</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9973666252464</v>
+        <v>359.2148140206376</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26981,28 +27308,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2968204914612712</v>
+        <v>0.2468750373136716</v>
       </c>
       <c r="J7" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K7" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05950070455287471</v>
+        <v>0.04088008465926252</v>
       </c>
       <c r="M7" t="n">
-        <v>6.27398023527519</v>
+        <v>6.392857878061295</v>
       </c>
       <c r="N7" t="n">
-        <v>67.49779379310158</v>
+        <v>70.55575341946299</v>
       </c>
       <c r="O7" t="n">
-        <v>8.215704096004284</v>
+        <v>8.399747223545658</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9554827866661</v>
+        <v>363.4917769386245</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27059,28 +27386,28 @@
         <v>0.0837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1904824600117055</v>
+        <v>0.1366356704148051</v>
       </c>
       <c r="J8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K8" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02472791451656731</v>
+        <v>0.01250099173884545</v>
       </c>
       <c r="M8" t="n">
-        <v>6.346858767126385</v>
+        <v>6.481683766589597</v>
       </c>
       <c r="N8" t="n">
-        <v>70.10296466555364</v>
+        <v>73.58010013961642</v>
       </c>
       <c r="O8" t="n">
-        <v>8.372751319939798</v>
+        <v>8.577884362686198</v>
       </c>
       <c r="P8" t="n">
-        <v>369.7228142301595</v>
+        <v>370.2950148148215</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27137,28 +27464,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1433707669504416</v>
+        <v>0.1161567048238913</v>
       </c>
       <c r="J9" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K9" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01313706137056259</v>
+        <v>0.008778192673533414</v>
       </c>
       <c r="M9" t="n">
-        <v>6.632067878070065</v>
+        <v>6.676678931085488</v>
       </c>
       <c r="N9" t="n">
-        <v>76.08897344197922</v>
+        <v>76.35454840782408</v>
       </c>
       <c r="O9" t="n">
-        <v>8.722899371308786</v>
+        <v>8.738108972073082</v>
       </c>
       <c r="P9" t="n">
-        <v>375.3986845498023</v>
+        <v>375.6878352052576</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27215,28 +27542,28 @@
         <v>0.0814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1567949641586756</v>
+        <v>0.1211813824300122</v>
       </c>
       <c r="J10" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K10" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01585902128936645</v>
+        <v>0.009556837263934415</v>
       </c>
       <c r="M10" t="n">
-        <v>6.515427723398616</v>
+        <v>6.617134109671855</v>
       </c>
       <c r="N10" t="n">
-        <v>74.92928023563582</v>
+        <v>76.08870937751821</v>
       </c>
       <c r="O10" t="n">
-        <v>8.656170067393305</v>
+        <v>8.722884235017579</v>
       </c>
       <c r="P10" t="n">
-        <v>377.7014834975749</v>
+        <v>378.079104107989</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27293,28 +27620,28 @@
         <v>0.0752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1474952443849951</v>
+        <v>0.1229873137457064</v>
       </c>
       <c r="J11" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K11" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01386073352797634</v>
+        <v>0.009841427350217868</v>
       </c>
       <c r="M11" t="n">
-        <v>6.720475571764291</v>
+        <v>6.74435216392286</v>
       </c>
       <c r="N11" t="n">
-        <v>77.05388035939961</v>
+        <v>77.11449009690408</v>
       </c>
       <c r="O11" t="n">
-        <v>8.778033968913519</v>
+        <v>8.781485642925352</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3544692285133</v>
+        <v>380.6128524841486</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27371,28 +27698,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05090128769807336</v>
+        <v>0.04747966356206421</v>
       </c>
       <c r="J12" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K12" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001652769583625702</v>
+        <v>0.001482594900548029</v>
       </c>
       <c r="M12" t="n">
-        <v>6.76577946701256</v>
+        <v>6.715856092638033</v>
       </c>
       <c r="N12" t="n">
-        <v>77.81088803193209</v>
+        <v>76.87923430342704</v>
       </c>
       <c r="O12" t="n">
-        <v>8.821048012108998</v>
+        <v>8.768080422956158</v>
       </c>
       <c r="P12" t="n">
-        <v>384.3935878589294</v>
+        <v>384.4295595575389</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27449,28 +27776,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05839174128708668</v>
+        <v>0.05062739864497278</v>
       </c>
       <c r="J13" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K13" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002478371296656401</v>
+        <v>0.001916784311927322</v>
       </c>
       <c r="M13" t="n">
-        <v>6.65176717205334</v>
+        <v>6.601844166359477</v>
       </c>
       <c r="N13" t="n">
-        <v>68.55928279442854</v>
+        <v>67.83388689869949</v>
       </c>
       <c r="O13" t="n">
-        <v>8.280053308670697</v>
+        <v>8.236133006374988</v>
       </c>
       <c r="P13" t="n">
-        <v>388.0183598226603</v>
+        <v>388.1000654432306</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27527,28 +27854,28 @@
         <v>0.0717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1236836357658682</v>
+        <v>0.1211450759034548</v>
       </c>
       <c r="J14" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K14" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009303337849013493</v>
+        <v>0.009187345733788321</v>
       </c>
       <c r="M14" t="n">
-        <v>7.18601689017407</v>
+        <v>7.114899288095022</v>
       </c>
       <c r="N14" t="n">
-        <v>80.89238174304147</v>
+        <v>79.88894549464858</v>
       </c>
       <c r="O14" t="n">
-        <v>8.99401922074005</v>
+        <v>8.938061618418647</v>
       </c>
       <c r="P14" t="n">
-        <v>385.6744118323973</v>
+        <v>385.7015006022256</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27605,28 +27932,28 @@
         <v>0.0732</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2115957565675584</v>
+        <v>0.2010273628466105</v>
       </c>
       <c r="J15" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K15" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02758699755250604</v>
+        <v>0.02558648421902299</v>
       </c>
       <c r="M15" t="n">
-        <v>7.074516601561962</v>
+        <v>7.022254029675564</v>
       </c>
       <c r="N15" t="n">
-        <v>79.74978019251208</v>
+        <v>78.97235738202941</v>
       </c>
       <c r="O15" t="n">
-        <v>8.930273242880762</v>
+        <v>8.88663926251254</v>
       </c>
       <c r="P15" t="n">
-        <v>382.8044525159812</v>
+        <v>382.9169358257487</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27683,28 +28010,28 @@
         <v>0.0735</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2174272512068676</v>
+        <v>0.2116862288080078</v>
       </c>
       <c r="J16" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K16" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02761406903457986</v>
+        <v>0.02695426074694085</v>
       </c>
       <c r="M16" t="n">
-        <v>7.048583144255824</v>
+        <v>6.978555526740535</v>
       </c>
       <c r="N16" t="n">
-        <v>83.82912885614806</v>
+        <v>82.76802624726315</v>
       </c>
       <c r="O16" t="n">
-        <v>9.155824859407701</v>
+        <v>9.097693457534341</v>
       </c>
       <c r="P16" t="n">
-        <v>383.1781536449759</v>
+        <v>383.2392484553067</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27761,28 +28088,28 @@
         <v>0.0759</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1295004999400657</v>
+        <v>0.1357028325275729</v>
       </c>
       <c r="J17" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K17" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01284525245115098</v>
+        <v>0.01449532743401094</v>
       </c>
       <c r="M17" t="n">
-        <v>6.368353612047195</v>
+        <v>6.308718135691691</v>
       </c>
       <c r="N17" t="n">
-        <v>63.28554664711799</v>
+        <v>62.51887095602835</v>
       </c>
       <c r="O17" t="n">
-        <v>7.955221344948108</v>
+        <v>7.906887564397786</v>
       </c>
       <c r="P17" t="n">
-        <v>384.7603325166342</v>
+        <v>384.6934206451972</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27839,28 +28166,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1217776059507327</v>
+        <v>0.1129629359963815</v>
       </c>
       <c r="J18" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K18" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0119094643287142</v>
+        <v>0.01054001438277163</v>
       </c>
       <c r="M18" t="n">
-        <v>6.236912346550552</v>
+        <v>6.191185288951432</v>
       </c>
       <c r="N18" t="n">
-        <v>60.38961226527891</v>
+        <v>59.75836094727859</v>
       </c>
       <c r="O18" t="n">
-        <v>7.771075360931645</v>
+        <v>7.730353222672208</v>
       </c>
       <c r="P18" t="n">
-        <v>382.9063328477013</v>
+        <v>383.0016437340177</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27917,28 +28244,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1718377365423696</v>
+        <v>0.1587688314342865</v>
       </c>
       <c r="J19" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K19" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02216408443573981</v>
+        <v>0.01945058252484555</v>
       </c>
       <c r="M19" t="n">
-        <v>6.368721366739572</v>
+        <v>6.347262220039743</v>
       </c>
       <c r="N19" t="n">
-        <v>63.50832350989829</v>
+        <v>62.92859732807937</v>
       </c>
       <c r="O19" t="n">
-        <v>7.969210971601786</v>
+        <v>7.932754712461452</v>
       </c>
       <c r="P19" t="n">
-        <v>381.4481261652901</v>
+        <v>381.5908627704233</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27995,28 +28322,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1975578835041945</v>
+        <v>0.1835523569590075</v>
       </c>
       <c r="J20" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K20" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03028247577211529</v>
+        <v>0.02685443370240514</v>
       </c>
       <c r="M20" t="n">
-        <v>6.301321932989054</v>
+        <v>6.286316738273743</v>
       </c>
       <c r="N20" t="n">
-        <v>60.48442579707562</v>
+        <v>60.02415334889399</v>
       </c>
       <c r="O20" t="n">
-        <v>7.777173380931893</v>
+        <v>7.747525627508049</v>
       </c>
       <c r="P20" t="n">
-        <v>377.6372381400221</v>
+        <v>377.7901518648367</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28073,28 +28400,28 @@
         <v>0.0774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1481105287014725</v>
+        <v>0.1251533728807171</v>
       </c>
       <c r="J21" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K21" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01777037227301748</v>
+        <v>0.01292455329605913</v>
       </c>
       <c r="M21" t="n">
-        <v>6.187732442097276</v>
+        <v>6.21381747499357</v>
       </c>
       <c r="N21" t="n">
-        <v>58.86771321773027</v>
+        <v>58.98745624379014</v>
       </c>
       <c r="O21" t="n">
-        <v>7.672529779527107</v>
+        <v>7.680329175483961</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6506891709153</v>
+        <v>377.901144068112</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28151,28 +28478,28 @@
         <v>0.0755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1861445971898011</v>
+        <v>0.1688364837827884</v>
       </c>
       <c r="J22" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K22" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02222872814188426</v>
+        <v>0.01875211853619796</v>
       </c>
       <c r="M22" t="n">
-        <v>6.827769808553271</v>
+        <v>6.82383524571841</v>
       </c>
       <c r="N22" t="n">
-        <v>73.15245559372872</v>
+        <v>72.70087643152573</v>
       </c>
       <c r="O22" t="n">
-        <v>8.552920880829468</v>
+        <v>8.526480893752458</v>
       </c>
       <c r="P22" t="n">
-        <v>376.8217193265738</v>
+        <v>377.0120163256362</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28229,28 +28556,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2949464440735629</v>
+        <v>0.2658943965779461</v>
       </c>
       <c r="J23" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K23" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05103921707227865</v>
+        <v>0.04223119505217066</v>
       </c>
       <c r="M23" t="n">
-        <v>7.072156003553919</v>
+        <v>7.118121938807738</v>
       </c>
       <c r="N23" t="n">
-        <v>78.50733506020751</v>
+        <v>78.98301774110126</v>
       </c>
       <c r="O23" t="n">
-        <v>8.860436505060431</v>
+        <v>8.887239039268678</v>
       </c>
       <c r="P23" t="n">
-        <v>375.1193770662694</v>
+        <v>375.4387066990557</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28307,28 +28634,28 @@
         <v>0.068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3294741860050931</v>
+        <v>0.3159920297397526</v>
       </c>
       <c r="J24" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K24" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06689931004618133</v>
+        <v>0.06333069475344999</v>
       </c>
       <c r="M24" t="n">
-        <v>6.655095576853653</v>
+        <v>6.627415856664651</v>
       </c>
       <c r="N24" t="n">
-        <v>71.96888416879297</v>
+        <v>71.30835664940383</v>
       </c>
       <c r="O24" t="n">
-        <v>8.483447658163099</v>
+        <v>8.44442755013055</v>
       </c>
       <c r="P24" t="n">
-        <v>375.0240341373131</v>
+        <v>375.1731435985528</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28385,28 +28712,28 @@
         <v>0.0709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3236125136955983</v>
+        <v>0.3116384224565771</v>
       </c>
       <c r="J25" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K25" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06110574997081086</v>
+        <v>0.05831706307979867</v>
       </c>
       <c r="M25" t="n">
-        <v>7.071919264518811</v>
+        <v>7.026040769450456</v>
       </c>
       <c r="N25" t="n">
-        <v>76.21573826877463</v>
+        <v>75.57553959102405</v>
       </c>
       <c r="O25" t="n">
-        <v>8.730162556835619</v>
+        <v>8.693419326768039</v>
       </c>
       <c r="P25" t="n">
-        <v>375.3851218274326</v>
+        <v>375.516760221252</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28463,28 +28790,28 @@
         <v>0.0776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2254653296202649</v>
+        <v>0.1980409197182138</v>
       </c>
       <c r="J26" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K26" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L26" t="n">
-        <v>0.030523510173184</v>
+        <v>0.02405153703260343</v>
       </c>
       <c r="M26" t="n">
-        <v>7.055564576487962</v>
+        <v>7.066032424674112</v>
       </c>
       <c r="N26" t="n">
-        <v>79.24378654116487</v>
+        <v>79.41994852026168</v>
       </c>
       <c r="O26" t="n">
-        <v>8.901897917925417</v>
+        <v>8.911787055370079</v>
       </c>
       <c r="P26" t="n">
-        <v>372.9461375787502</v>
+        <v>373.2418019441676</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28541,28 +28868,28 @@
         <v>0.0764</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2833611562313866</v>
+        <v>0.2340973820570479</v>
       </c>
       <c r="J27" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K27" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0408270196337801</v>
+        <v>0.02782701393489373</v>
       </c>
       <c r="M27" t="n">
-        <v>7.801344859475915</v>
+        <v>7.922577902940743</v>
       </c>
       <c r="N27" t="n">
-        <v>91.28491369632734</v>
+        <v>94.19852359170146</v>
       </c>
       <c r="O27" t="n">
-        <v>9.554313878888809</v>
+        <v>9.70559238746927</v>
       </c>
       <c r="P27" t="n">
-        <v>372.2936701196776</v>
+        <v>372.8283578722042</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28619,28 +28946,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2520120668224403</v>
+        <v>0.2290801379259483</v>
       </c>
       <c r="J28" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K28" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03099968338120951</v>
+        <v>0.0262545425059324</v>
       </c>
       <c r="M28" t="n">
-        <v>7.90983757700809</v>
+        <v>7.906200337084033</v>
       </c>
       <c r="N28" t="n">
-        <v>94.54791358064121</v>
+        <v>94.22064421130122</v>
       </c>
       <c r="O28" t="n">
-        <v>9.723575143980799</v>
+        <v>9.706731901690766</v>
       </c>
       <c r="P28" t="n">
-        <v>377.4501461335318</v>
+        <v>377.7024656350391</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28697,28 +29024,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2585607286028363</v>
+        <v>0.2494957868440028</v>
       </c>
       <c r="J29" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K29" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02691842358476204</v>
+        <v>0.02579996751725289</v>
       </c>
       <c r="M29" t="n">
-        <v>8.43874893313388</v>
+        <v>8.363888540866586</v>
       </c>
       <c r="N29" t="n">
-        <v>116.1095872246791</v>
+        <v>114.7773352366715</v>
       </c>
       <c r="O29" t="n">
-        <v>10.77541587247003</v>
+        <v>10.71341846642198</v>
       </c>
       <c r="P29" t="n">
-        <v>389.8037688132598</v>
+        <v>389.9033671781307</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28775,28 +29102,28 @@
         <v>0.0738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.006530446237064771</v>
+        <v>-0.01252446858662868</v>
       </c>
       <c r="J30" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K30" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L30" t="n">
-        <v>1.247530948078612e-05</v>
+        <v>4.709929548563085e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>9.835856393766841</v>
+        <v>9.778484076362728</v>
       </c>
       <c r="N30" t="n">
-        <v>157.1464224670873</v>
+        <v>155.7268320054549</v>
       </c>
       <c r="O30" t="n">
-        <v>12.53580561699516</v>
+        <v>12.47905573372661</v>
       </c>
       <c r="P30" t="n">
-        <v>398.3829570038669</v>
+        <v>398.5976171980564</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28834,7 +29161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE259"/>
+  <dimension ref="A1:AE262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64813,6 +65140,477 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>-35.69454546130366,174.51469170459154</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>-35.695268722088606,174.51481051539952</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>-35.69599934665411,174.51473667762133</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-35.696732324976594,174.5147989583085</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-35.697439296158414,174.51502420150194</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>-35.69815358737837,174.51521887829364</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>-35.69884347363422,174.51551461889147</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-35.69949933467611,174.51593435761845</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>-35.70018599500856,174.51623256967886</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>-35.700850973439714,174.51661078746082</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>-35.701515902559514,174.5169891553498</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>-35.70219686953449,174.5172888573612</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>-35.70287162328766,174.51760678011078</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>-35.70354707198042,174.51794348996572</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>-35.70421814195306,174.5182858177694</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>-35.704875805722274,174.5186441250555</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>-35.7055377395383,174.5190004739014</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>-35.70617595806057,174.5194173865428</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>-35.706821679264515,174.51982925137318</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>-35.70746327508303,174.52025968648653</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>-35.70807683224727,174.5207446807119</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>-35.708698915127535,174.52121261050135</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>-35.70929770657661,174.52172430293092</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>-35.70989344588766,174.522222947673</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>-35.710527884792455,174.52266737382055</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr">
+        <is>
+          <t>-35.7111248444908,174.52318569267388</t>
+        </is>
+      </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>-35.7116743496134,174.5237773583402</t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>-35.71211871521439,174.52452674899607</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>-35.712692673449794,174.52507841809143</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>-35.69454467868709,174.51470027030757</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>-35.695263377489674,174.514869011702</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>-35.69599554096431,174.51476034930462</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>-35.69672000651418,174.51485049767967</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>-35.69744790662416,174.51498912198838</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>-35.69813839235121,174.51528078382267</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>-35.69884006928616,174.51552813439187</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>-35.699510669170905,174.51589291845832</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>-35.700208804474926,174.51615360732984</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>-35.70087423447267,174.51653026195808</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>-35.70153483052063,174.51692363025373</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>-35.702204803623516,174.51726347972053</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>-35.70286405424394,174.51762902275058</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>-35.70356971678371,174.51787760517198</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>-35.70422131609521,174.51827691409582</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>-35.70487019275628,174.518658229277</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>-35.705551892700655,174.5189682696433</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>-35.70618544277637,174.51939755668786</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>-35.70682429106686,174.51982408461674</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>-35.7074707306243,174.5202449376549</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>-35.708074588560436,174.5207490870206</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>-35.708718814572656,174.5211739117661</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>-35.70930218081042,174.52171575164073</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>-35.70988625378065,174.5222352672167</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>-35.71055109037473,174.52263111578407</t>
+        </is>
+      </c>
+      <c r="AA261" t="inlineStr">
+        <is>
+          <t>-35.71114704848715,174.52315099957517</t>
+        </is>
+      </c>
+      <c r="AB261" t="inlineStr">
+        <is>
+          <t>-35.71163578756499,174.52383705486002</t>
+        </is>
+      </c>
+      <c r="AC261" t="inlineStr">
+        <is>
+          <t>-35.71210998925435,174.52453999806661</t>
+        </is>
+      </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>-35.712677231777484,174.52510162806814</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>-35.694542150229395,174.51472794415804</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>-35.69526515456638,174.5148495617434</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>-35.69599715426747,174.51475031443866</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>-35.69672858212645,174.51481461807805</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>-35.69741376340602,174.51512822305986</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>-35.69815797333644,174.51520100958692</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>-35.69884729465849,174.51549944914868</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>-35.69950581153199,174.51591067809989</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>-35.70018767011182,174.5162267707744</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>-35.700869686302205,174.51654600692254</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>-35.701533351707745,174.51692874963558</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>-35.70221644044341,174.5172262586423</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>-35.70288198766481,174.51757632298643</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>-35.703560780033804,174.51790360655949</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>-35.704229933207486,174.51825274252684</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>-35.70485702430258,174.51869131885124</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>-35.70552793351557,174.5190227866132</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>-35.706184515584745,174.5193994951835</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>-35.70681074135058,174.5198508891191</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>-35.70745847205824,174.52026918800715</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>-35.708079880660435,174.5207386940246</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>-35.708722213120055,174.52116730255813</t>
+        </is>
+      </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>-35.70930138705518,174.52171726868977</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>-35.709931254879095,174.52215818361492</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>-35.71052437096235,174.52267286407294</t>
+        </is>
+      </c>
+      <c r="AA262" t="inlineStr">
+        <is>
+          <t>-35.711182099459286,174.52309623338022</t>
+        </is>
+      </c>
+      <c r="AB262" t="inlineStr">
+        <is>
+          <t>-35.711647868690825,174.5238183525147</t>
+        </is>
+      </c>
+      <c r="AC262" t="inlineStr">
+        <is>
+          <t>-35.71215210735507,174.5244760479578</t>
+        </is>
+      </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>-35.71273508579457,174.52501466911767</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -26909,13 +26909,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0364</v>
+        <v>0.0465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0425</v>
+        <v>0.0566</v>
       </c>
       <c r="I2" t="n">
         <v>0.100503873169205</v>
@@ -26987,13 +26987,13 @@
         <v>0.03571897760379505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0397</v>
+        <v>0.0485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0484</v>
+        <v>0.0608</v>
       </c>
       <c r="I3" t="n">
         <v>-0.04160611044743728</v>
@@ -27065,13 +27065,13 @@
         <v>0.07143795520772518</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1028</v>
+        <v>0.1309</v>
       </c>
       <c r="I4" t="n">
         <v>-0.001787690138633</v>
@@ -27143,13 +27143,13 @@
         <v>0.1071135984339481</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0529</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0653</v>
+        <v>0.135</v>
       </c>
       <c r="I5" t="n">
         <v>0.1671675174746139</v>
@@ -27221,13 +27221,13 @@
         <v>0.1428325760374998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0692</v>
+        <v>0.0829</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08840000000000001</v>
+        <v>0.1144</v>
       </c>
       <c r="I6" t="n">
         <v>0.2774644801033377</v>
@@ -27299,13 +27299,13 @@
         <v>0.1785515536414226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0649</v>
+        <v>0.0799</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.1056</v>
       </c>
       <c r="I7" t="n">
         <v>0.2468868005283148</v>
@@ -27377,13 +27377,13 @@
         <v>0.2142705312453455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0688</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0837</v>
+        <v>0.1177</v>
       </c>
       <c r="I8" t="n">
         <v>0.1366953358904912</v>
@@ -27455,13 +27455,13 @@
         <v>0.2499808220920728</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0697</v>
+        <v>0.0891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0901</v>
+        <v>0.1239</v>
       </c>
       <c r="I9" t="n">
         <v>0.1161741544156134</v>
@@ -27533,13 +27533,13 @@
         <v>0.285699799695836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.067</v>
+        <v>0.0794</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0814</v>
+        <v>0.1071</v>
       </c>
       <c r="I10" t="n">
         <v>0.1212447589513288</v>
@@ -27611,13 +27611,13 @@
         <v>0.3214187772992845</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0636</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0752</v>
+        <v>0.117</v>
       </c>
       <c r="I11" t="n">
         <v>0.1229785928399572</v>
@@ -27689,13 +27689,13 @@
         <v>0.3571377549034798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0639</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0762</v>
+        <v>0.114</v>
       </c>
       <c r="I12" t="n">
         <v>0.04747656507715101</v>
@@ -27767,13 +27767,13 @@
         <v>0.3928567325072429</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0598</v>
+        <v>0.0848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0708</v>
+        <v>0.1122</v>
       </c>
       <c r="I13" t="n">
         <v>0.05063812796650138</v>
@@ -27845,13 +27845,13 @@
         <v>0.4285691759922523</v>
       </c>
       <c r="F14" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0611</v>
+        <v>0.0866</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0717</v>
+        <v>0.1161</v>
       </c>
       <c r="I14" t="n">
         <v>0.1211513696170163</v>
@@ -27923,13 +27923,13 @@
         <v>0.4642881535963441</v>
       </c>
       <c r="F15" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0614</v>
+        <v>0.0853</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0732</v>
+        <v>0.1195</v>
       </c>
       <c r="I15" t="n">
         <v>0.2010343898932861</v>
@@ -28001,13 +28001,13 @@
         <v>0.5000071312004358</v>
       </c>
       <c r="F16" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0599</v>
+        <v>0.0843</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0735</v>
+        <v>0.1337</v>
       </c>
       <c r="I16" t="n">
         <v>0.211694333599725</v>
@@ -28079,13 +28079,13 @@
         <v>0.5356989694428514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0615</v>
+        <v>0.0823</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0759</v>
+        <v>0.1211</v>
       </c>
       <c r="I17" t="n">
         <v>0.1356978428854874</v>
@@ -28157,13 +28157,13 @@
         <v>0.5714179470467449</v>
       </c>
       <c r="F18" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.0794</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.1036</v>
       </c>
       <c r="I18" t="n">
         <v>0.1130357751255154</v>
@@ -28235,13 +28235,13 @@
         <v>0.607116471194416</v>
       </c>
       <c r="F19" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0693</v>
+        <v>0.0774</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.1028</v>
       </c>
       <c r="I19" t="n">
         <v>0.1588394862310588</v>
@@ -28313,13 +28313,13 @@
         <v>0.6428354487980917</v>
       </c>
       <c r="F20" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0672</v>
+        <v>0.0829</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.1098</v>
       </c>
       <c r="I20" t="n">
         <v>0.1836308688803935</v>
@@ -28391,13 +28391,13 @@
         <v>0.6785544264020517</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G21" t="n">
-        <v>0.065</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0774</v>
+        <v>0.0915</v>
       </c>
       <c r="I21" t="n">
         <v>0.1251701742921174</v>
@@ -28469,13 +28469,13 @@
         <v>0.7142734040060116</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.063</v>
+        <v>0.0762</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0755</v>
+        <v>0.0985</v>
       </c>
       <c r="I22" t="n">
         <v>0.1688508080002401</v>
@@ -28547,13 +28547,13 @@
         <v>0.7499921140820429</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0597</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0697</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="I23" t="n">
         <v>0.2658956388175188</v>
@@ -28625,13 +28625,13 @@
         <v>0.7857110916857267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0612</v>
+        <v>0.0764</v>
       </c>
       <c r="H24" t="n">
-        <v>0.068</v>
+        <v>0.098</v>
       </c>
       <c r="I24" t="n">
         <v>0.3159943538049954</v>
@@ -28703,13 +28703,13 @@
         <v>0.8214088498091414</v>
       </c>
       <c r="F25" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06</v>
+        <v>0.0693</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0709</v>
+        <v>0.0919</v>
       </c>
       <c r="I25" t="n">
         <v>0.3116530884247756</v>
@@ -28781,13 +28781,13 @@
         <v>0.8571278274128067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0641</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0776</v>
+        <v>0.1013</v>
       </c>
       <c r="I26" t="n">
         <v>0.1980516962875585</v>
@@ -28859,13 +28859,13 @@
         <v>0.8928468050172835</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.064</v>
+        <v>0.0329</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0764</v>
+        <v>0.1466</v>
       </c>
       <c r="I27" t="n">
         <v>0.2341012753556118</v>
@@ -28937,13 +28937,13 @@
         <v>0.9285657826209488</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0645</v>
+        <v>0.0388</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.0779</v>
       </c>
       <c r="I28" t="n">
         <v>0.2290754509986707</v>
@@ -29015,13 +29015,13 @@
         <v>0.9642828174106881</v>
       </c>
       <c r="F29" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0556</v>
+        <v>0.0522</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.1228</v>
       </c>
       <c r="I29" t="n">
         <v>0.2494925857329407</v>
@@ -29093,13 +29093,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0539</v>
+        <v>0.0682</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0738</v>
+        <v>0.1943</v>
       </c>
       <c r="I30" t="n">
         <v>-0.01260196636139185</v>

--- a/data/nzd0097/nzd0097.xlsx
+++ b/data/nzd0097/nzd0097.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE263"/>
+  <dimension ref="A1:AE264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26466,6 +26466,105 @@
       <c r="AE263" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>392.87</v>
+      </c>
+      <c r="C264" t="n">
+        <v>398.79</v>
+      </c>
+      <c r="D264" t="n">
+        <v>379.21</v>
+      </c>
+      <c r="E264" t="n">
+        <v>364.3</v>
+      </c>
+      <c r="F264" t="n">
+        <v>361</v>
+      </c>
+      <c r="G264" t="n">
+        <v>361.42</v>
+      </c>
+      <c r="H264" t="n">
+        <v>365.26</v>
+      </c>
+      <c r="I264" t="n">
+        <v>374.19</v>
+      </c>
+      <c r="J264" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="K264" t="n">
+        <v>381.64</v>
+      </c>
+      <c r="L264" t="n">
+        <v>387.71</v>
+      </c>
+      <c r="M264" t="n">
+        <v>391.38</v>
+      </c>
+      <c r="N264" t="n">
+        <v>391.13</v>
+      </c>
+      <c r="O264" t="n">
+        <v>388.25</v>
+      </c>
+      <c r="P264" t="n">
+        <v>391.39</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>392.57</v>
+      </c>
+      <c r="R264" t="n">
+        <v>386.94</v>
+      </c>
+      <c r="S264" t="n">
+        <v>385.98</v>
+      </c>
+      <c r="T264" t="n">
+        <v>381.18</v>
+      </c>
+      <c r="U264" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="V264" t="n">
+        <v>378.44</v>
+      </c>
+      <c r="W264" t="n">
+        <v>377.78</v>
+      </c>
+      <c r="X264" t="n">
+        <v>381.49</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>381.08</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>371.39</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>367.38</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>376.98</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>394.87</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>393.96</v>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26480,7 +26579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29138,6 +29237,16 @@
       </c>
       <c r="B265" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -29311,28 +29420,28 @@
         <v>0.0566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07206013429256675</v>
+        <v>0.07250953096061498</v>
       </c>
       <c r="J2" t="n">
+        <v>263</v>
+      </c>
+      <c r="K2" t="n">
         <v>262</v>
       </c>
-      <c r="K2" t="n">
-        <v>261</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.006676968338270695</v>
+        <v>0.006816163578278522</v>
       </c>
       <c r="M2" t="n">
-        <v>4.441570033241818</v>
+        <v>4.426828395682503</v>
       </c>
       <c r="N2" t="n">
-        <v>39.14342205051035</v>
+        <v>38.99524271152291</v>
       </c>
       <c r="O2" t="n">
-        <v>6.256470414739476</v>
+        <v>6.244617098871869</v>
       </c>
       <c r="P2" t="n">
-        <v>390.4062200255444</v>
+        <v>390.4013407415815</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29387,34 +29496,34 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0608</v>
+        <v>0.0609</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02298609023396319</v>
+        <v>-0.02415763597417946</v>
       </c>
       <c r="J3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K3" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008565129823957518</v>
+        <v>0.0009536447278877258</v>
       </c>
       <c r="M3" t="n">
-        <v>4.444017020957216</v>
+        <v>4.432349924047355</v>
       </c>
       <c r="N3" t="n">
-        <v>31.18272379303861</v>
+        <v>31.07155504427063</v>
       </c>
       <c r="O3" t="n">
-        <v>5.584149334772362</v>
+        <v>5.574186491701783</v>
       </c>
       <c r="P3" t="n">
-        <v>400.8717340783039</v>
+        <v>400.8844833092064</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29465,34 +29574,34 @@
         <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0745</v>
+        <v>0.0747</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1312</v>
+        <v>0.132</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00942208557523398</v>
+        <v>0.006523950784670299</v>
       </c>
       <c r="J4" t="n">
+        <v>263</v>
+      </c>
+      <c r="K4" t="n">
         <v>262</v>
       </c>
-      <c r="K4" t="n">
-        <v>261</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.0002403064385707587</v>
+        <v>0.0001158774225549219</v>
       </c>
       <c r="M4" t="n">
-        <v>3.377284107878004</v>
+        <v>3.379475547977101</v>
       </c>
       <c r="N4" t="n">
-        <v>18.71212904575229</v>
+        <v>18.69156364613601</v>
       </c>
       <c r="O4" t="n">
-        <v>4.325751847454069</v>
+        <v>4.323374104346745</v>
       </c>
       <c r="P4" t="n">
-        <v>382.6377265220752</v>
+        <v>382.6691952822539</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29543,34 +29652,34 @@
         <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0935</v>
+        <v>0.0936</v>
       </c>
       <c r="H5" t="n">
         <v>0.1347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09487942985483196</v>
+        <v>0.09267735972086744</v>
       </c>
       <c r="J5" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K5" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02099581814836071</v>
+        <v>0.02018973085942111</v>
       </c>
       <c r="M5" t="n">
-        <v>3.551771866715319</v>
+        <v>3.549242774970119</v>
       </c>
       <c r="N5" t="n">
-        <v>21.29801196530119</v>
+        <v>21.24641260838492</v>
       </c>
       <c r="O5" t="n">
-        <v>4.614976919259855</v>
+        <v>4.609383104970222</v>
       </c>
       <c r="P5" t="n">
-        <v>364.613734598625</v>
+        <v>364.6375909982394</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29624,31 +29733,31 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1141</v>
+        <v>0.114</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2468389682258079</v>
+        <v>0.2429429634332007</v>
       </c>
       <c r="J6" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1108274208562295</v>
+        <v>0.1081793762441752</v>
       </c>
       <c r="M6" t="n">
-        <v>3.814690615306082</v>
+        <v>3.821355951192719</v>
       </c>
       <c r="N6" t="n">
-        <v>24.80330017326601</v>
+        <v>24.80096254383776</v>
       </c>
       <c r="O6" t="n">
-        <v>4.980291173542568</v>
+        <v>4.980056479984715</v>
       </c>
       <c r="P6" t="n">
-        <v>359.4767004361514</v>
+        <v>359.5189082867547</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29699,34 +29808,34 @@
         <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0799</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1057</v>
+        <v>0.1066</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2295294715097374</v>
+        <v>0.2230984447253508</v>
       </c>
       <c r="J7" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K7" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1219208913019779</v>
+        <v>0.1154945291162549</v>
       </c>
       <c r="M7" t="n">
-        <v>3.423088023364444</v>
+        <v>3.442904713976117</v>
       </c>
       <c r="N7" t="n">
-        <v>19.25198961809717</v>
+        <v>19.42938459330103</v>
       </c>
       <c r="O7" t="n">
-        <v>4.387708925862924</v>
+        <v>4.407877561060542</v>
       </c>
       <c r="P7" t="n">
-        <v>363.570197343945</v>
+        <v>363.6398686693645</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29777,34 +29886,34 @@
         <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1179</v>
+        <v>0.1191</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1212638705772364</v>
+        <v>0.1147844582789602</v>
       </c>
       <c r="J8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03762141992607415</v>
+        <v>0.03368057461082019</v>
       </c>
       <c r="M8" t="n">
-        <v>3.35559373512608</v>
+        <v>3.376839672809795</v>
       </c>
       <c r="N8" t="n">
-        <v>19.08608297339939</v>
+        <v>19.26789381397265</v>
       </c>
       <c r="O8" t="n">
-        <v>4.368762178626731</v>
+        <v>4.389520909390073</v>
       </c>
       <c r="P8" t="n">
-        <v>370.3090103601779</v>
+        <v>370.3792058760566</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29855,34 +29964,34 @@
         <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0892</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1242</v>
+        <v>0.1247</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1166377124688684</v>
+        <v>0.1135146111786297</v>
       </c>
       <c r="J9" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K9" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0370814294141536</v>
+        <v>0.03536381498462471</v>
       </c>
       <c r="M9" t="n">
-        <v>3.22286412140146</v>
+        <v>3.225638381060618</v>
       </c>
       <c r="N9" t="n">
-        <v>17.92479809040976</v>
+        <v>17.91574282140384</v>
       </c>
       <c r="O9" t="n">
-        <v>4.23376878093381</v>
+        <v>4.232699235878193</v>
       </c>
       <c r="P9" t="n">
-        <v>375.0941783383469</v>
+        <v>375.1280128431009</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29933,34 +30042,34 @@
         <v>0.09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0793</v>
+        <v>0.0794</v>
       </c>
       <c r="H10" t="n">
         <v>0.1072</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1634805474336958</v>
+        <v>0.1600703533107057</v>
       </c>
       <c r="J10" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K10" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05191719483528567</v>
+        <v>0.0501432057022666</v>
       </c>
       <c r="M10" t="n">
-        <v>3.679715395247537</v>
+        <v>3.682261561796955</v>
       </c>
       <c r="N10" t="n">
-        <v>24.76340768927652</v>
+        <v>24.7397150892036</v>
       </c>
       <c r="O10" t="n">
-        <v>4.976284526559601</v>
+        <v>4.973903405696937</v>
       </c>
       <c r="P10" t="n">
-        <v>377.0540332481448</v>
+        <v>377.0909780086708</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30017,28 +30126,28 @@
         <v>0.1173</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1194896915983251</v>
+        <v>0.1180467520413902</v>
       </c>
       <c r="J11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0350018863485827</v>
+        <v>0.03444698008295766</v>
       </c>
       <c r="M11" t="n">
-        <v>3.607692139993298</v>
+        <v>3.599985995792049</v>
       </c>
       <c r="N11" t="n">
-        <v>19.97280602965283</v>
+        <v>19.90947947859917</v>
       </c>
       <c r="O11" t="n">
-        <v>4.469094542483167</v>
+        <v>4.462003975636862</v>
       </c>
       <c r="P11" t="n">
-        <v>380.3410207417397</v>
+        <v>380.356653006198</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30089,34 +30198,34 @@
         <v>0.095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0842</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1142</v>
+        <v>0.1139</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05161751707291198</v>
+        <v>0.05378919003174186</v>
       </c>
       <c r="J12" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K12" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006405459921878021</v>
+        <v>0.007000521158222583</v>
       </c>
       <c r="M12" t="n">
-        <v>3.514674519343846</v>
+        <v>3.511252843559999</v>
       </c>
       <c r="N12" t="n">
-        <v>20.9698965544362</v>
+        <v>20.91873921927052</v>
       </c>
       <c r="O12" t="n">
-        <v>4.579289961821178</v>
+        <v>4.573700823104909</v>
       </c>
       <c r="P12" t="n">
-        <v>383.5951763577193</v>
+        <v>383.5716492696675</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30170,31 +30279,31 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1127</v>
+        <v>0.1126</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04279998622341568</v>
+        <v>0.04480624899538315</v>
       </c>
       <c r="J13" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K13" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005806165875660074</v>
+        <v>0.006403082451776676</v>
       </c>
       <c r="M13" t="n">
-        <v>3.179152753622919</v>
+        <v>3.176394807777354</v>
       </c>
       <c r="N13" t="n">
-        <v>15.91519904658683</v>
+        <v>15.87907375289964</v>
       </c>
       <c r="O13" t="n">
-        <v>3.989385798163275</v>
+        <v>3.984855549816033</v>
       </c>
       <c r="P13" t="n">
-        <v>387.7053245453708</v>
+        <v>387.6835894490713</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30245,34 +30354,34 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.0868</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1165</v>
+        <v>0.1163</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1184137322444796</v>
+        <v>0.1205883790507671</v>
       </c>
       <c r="J14" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K14" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03339495808629855</v>
+        <v>0.03482387645666174</v>
       </c>
       <c r="M14" t="n">
-        <v>3.562429073867799</v>
+        <v>3.558734318504434</v>
       </c>
       <c r="N14" t="n">
-        <v>20.59280384136282</v>
+        <v>20.54315863554349</v>
       </c>
       <c r="O14" t="n">
-        <v>4.537929466327437</v>
+        <v>4.532456137189139</v>
       </c>
       <c r="P14" t="n">
-        <v>385.265714486063</v>
+        <v>385.2421551804663</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30323,34 +30432,34 @@
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0856</v>
+        <v>0.0853</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.1195</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1825594322476393</v>
+        <v>0.1833524098288254</v>
       </c>
       <c r="J15" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K15" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05987902949608115</v>
+        <v>0.06083758503040237</v>
       </c>
       <c r="M15" t="n">
-        <v>3.695530956822664</v>
+        <v>3.685008064825533</v>
       </c>
       <c r="N15" t="n">
-        <v>26.54976797783824</v>
+        <v>26.45262838737025</v>
       </c>
       <c r="O15" t="n">
-        <v>5.152646696391888</v>
+        <v>5.143211874633423</v>
       </c>
       <c r="P15" t="n">
-        <v>382.4610179819254</v>
+        <v>382.4524271610562</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30401,34 +30510,34 @@
         <v>0.105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0844</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1343</v>
+        <v>0.1336</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1209863375531525</v>
+        <v>0.123990503030212</v>
       </c>
       <c r="J16" t="n">
+        <v>263</v>
+      </c>
+      <c r="K16" t="n">
         <v>262</v>
       </c>
-      <c r="K16" t="n">
-        <v>261</v>
-      </c>
       <c r="L16" t="n">
-        <v>0.04373669129874524</v>
+        <v>0.04605373143367553</v>
       </c>
       <c r="M16" t="n">
-        <v>3.233109220701701</v>
+        <v>3.236926993678915</v>
       </c>
       <c r="N16" t="n">
-        <v>16.2166705942796</v>
+        <v>16.20942953775966</v>
       </c>
       <c r="O16" t="n">
-        <v>4.026992748227839</v>
+        <v>4.026093582836801</v>
       </c>
       <c r="P16" t="n">
-        <v>384.4063209529945</v>
+        <v>384.3737034961323</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30479,34 +30588,34 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.0822</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1218</v>
+        <v>0.1213</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06983972864701041</v>
+        <v>0.07405345837975448</v>
       </c>
       <c r="J17" t="n">
+        <v>263</v>
+      </c>
+      <c r="K17" t="n">
         <v>262</v>
       </c>
-      <c r="K17" t="n">
-        <v>261</v>
-      </c>
       <c r="L17" t="n">
-        <v>0.0156816013319887</v>
+        <v>0.01762152591592903</v>
       </c>
       <c r="M17" t="n">
-        <v>3.211964838038948</v>
+        <v>3.221865115318319</v>
       </c>
       <c r="N17" t="n">
-        <v>15.51133506704782</v>
+        <v>15.55963666578075</v>
       </c>
       <c r="O17" t="n">
-        <v>3.938443228872015</v>
+        <v>3.944570529953895</v>
       </c>
       <c r="P17" t="n">
-        <v>385.3993086959795</v>
+        <v>385.3535548370324</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30557,34 +30666,34 @@
         <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0796</v>
+        <v>0.0794</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1041</v>
+        <v>0.1036</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1098751171814573</v>
+        <v>0.1109239893803728</v>
       </c>
       <c r="J18" t="n">
+        <v>263</v>
+      </c>
+      <c r="K18" t="n">
         <v>262</v>
       </c>
-      <c r="K18" t="n">
-        <v>261</v>
-      </c>
       <c r="L18" t="n">
-        <v>0.04268916734465555</v>
+        <v>0.04380147119741051</v>
       </c>
       <c r="M18" t="n">
-        <v>2.911744863910045</v>
+        <v>2.905327468074512</v>
       </c>
       <c r="N18" t="n">
-        <v>13.71617098595499</v>
+        <v>13.67048021441176</v>
       </c>
       <c r="O18" t="n">
-        <v>3.70353493111041</v>
+        <v>3.697361250190703</v>
       </c>
       <c r="P18" t="n">
-        <v>382.7268627698781</v>
+        <v>382.7154738214437</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30635,34 +30744,34 @@
         <v>0.09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.0775</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1034</v>
+        <v>0.1031</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1582874217453647</v>
+        <v>0.1587178007655496</v>
       </c>
       <c r="J19" t="n">
+        <v>263</v>
+      </c>
+      <c r="K19" t="n">
         <v>262</v>
       </c>
-      <c r="K19" t="n">
-        <v>261</v>
-      </c>
       <c r="L19" t="n">
-        <v>0.07404557899964326</v>
+        <v>0.07499248913695922</v>
       </c>
       <c r="M19" t="n">
-        <v>3.060872744528008</v>
+        <v>3.051497258332982</v>
       </c>
       <c r="N19" t="n">
-        <v>15.87384681648175</v>
+        <v>15.81438111203786</v>
       </c>
       <c r="O19" t="n">
-        <v>3.984199645660562</v>
+        <v>3.976729952113653</v>
       </c>
       <c r="P19" t="n">
-        <v>381.2891405621513</v>
+        <v>381.284467386074</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30713,34 +30822,34 @@
         <v>0.095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0829</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1102</v>
+        <v>0.1098</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1607607724685405</v>
+        <v>0.1600179356331015</v>
       </c>
       <c r="J20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07622821151661274</v>
+        <v>0.07615099617351628</v>
       </c>
       <c r="M20" t="n">
-        <v>3.112079059523518</v>
+        <v>3.103880157029238</v>
       </c>
       <c r="N20" t="n">
-        <v>15.89104008093125</v>
+        <v>15.83396137394551</v>
       </c>
       <c r="O20" t="n">
-        <v>3.986356742808055</v>
+        <v>3.979191045168038</v>
       </c>
       <c r="P20" t="n">
-        <v>377.9109137906299</v>
+        <v>377.918961405518</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30791,34 +30900,34 @@
         <v>0.08</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0731</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0919</v>
+        <v>0.0916</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1145604132836546</v>
+        <v>0.1124832287767947</v>
       </c>
       <c r="J21" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K21" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0403797182415131</v>
+        <v>0.03923780340518979</v>
       </c>
       <c r="M21" t="n">
-        <v>3.232625101998726</v>
+        <v>3.229388992958773</v>
       </c>
       <c r="N21" t="n">
-        <v>15.82517303023038</v>
+        <v>15.79114481237097</v>
       </c>
       <c r="O21" t="n">
-        <v>3.978086604164166</v>
+        <v>3.973807344647066</v>
       </c>
       <c r="P21" t="n">
-        <v>377.8513526852033</v>
+        <v>377.8738561209042</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30869,34 +30978,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0764</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0988</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1562429682801291</v>
+        <v>0.154264876884515</v>
       </c>
       <c r="J22" t="n">
+        <v>263</v>
+      </c>
+      <c r="K22" t="n">
         <v>262</v>
       </c>
-      <c r="K22" t="n">
-        <v>261</v>
-      </c>
       <c r="L22" t="n">
-        <v>0.05920742120163991</v>
+        <v>0.05819802848836775</v>
       </c>
       <c r="M22" t="n">
-        <v>3.541299326820775</v>
+        <v>3.534760195798719</v>
       </c>
       <c r="N22" t="n">
-        <v>19.46264400810951</v>
+        <v>19.41169193678324</v>
       </c>
       <c r="O22" t="n">
-        <v>4.411648672334358</v>
+        <v>4.405870167944493</v>
       </c>
       <c r="P22" t="n">
-        <v>376.8291215839968</v>
+        <v>376.8507155387206</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30947,34 +31056,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0765</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0969</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2726068453547252</v>
+        <v>0.2691911107062904</v>
       </c>
       <c r="J23" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K23" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1428409023811157</v>
+        <v>0.1404227396252135</v>
       </c>
       <c r="M23" t="n">
-        <v>3.83136255652885</v>
+        <v>3.831720616982156</v>
       </c>
       <c r="N23" t="n">
-        <v>22.1402458046074</v>
+        <v>22.12377702281081</v>
       </c>
       <c r="O23" t="n">
-        <v>4.705342262217213</v>
+        <v>4.703591927751685</v>
       </c>
       <c r="P23" t="n">
-        <v>374.8837392591735</v>
+        <v>374.9213551311474</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31025,34 +31134,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0766</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0982</v>
+        <v>0.0977</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2978926314544503</v>
+        <v>0.2968213320714133</v>
       </c>
       <c r="J24" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K24" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2088641699329261</v>
+        <v>0.2090081242154522</v>
       </c>
       <c r="M24" t="n">
-        <v>3.266230256432682</v>
+        <v>3.257987086621107</v>
       </c>
       <c r="N24" t="n">
-        <v>16.61107190888739</v>
+        <v>16.55411839903357</v>
       </c>
       <c r="O24" t="n">
-        <v>4.075668277581896</v>
+        <v>4.068675263403749</v>
       </c>
       <c r="P24" t="n">
-        <v>375.0106692985865</v>
+        <v>375.0224767193758</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31103,34 +31212,34 @@
         <v>0.08</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0694</v>
+        <v>0.0692</v>
       </c>
       <c r="H25" t="n">
-        <v>0.092</v>
+        <v>0.0916</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3026678871313641</v>
+        <v>0.3009278839776252</v>
       </c>
       <c r="J25" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K25" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1458040439907131</v>
+        <v>0.1453415868985617</v>
       </c>
       <c r="M25" t="n">
-        <v>4.108305023832017</v>
+        <v>4.100297470965694</v>
       </c>
       <c r="N25" t="n">
-        <v>26.5223290323036</v>
+        <v>26.43836044928844</v>
       </c>
       <c r="O25" t="n">
-        <v>5.149983401167774</v>
+        <v>5.141824622572073</v>
       </c>
       <c r="P25" t="n">
-        <v>375.3076337285904</v>
+        <v>375.3268113270622</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31187,28 +31296,28 @@
         <v>0.1013</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1912757069728483</v>
+        <v>0.1858055825311129</v>
       </c>
       <c r="J26" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K26" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="n">
-        <v>0.070177772607811</v>
+        <v>0.06655869072128895</v>
       </c>
       <c r="M26" t="n">
-        <v>3.786173692784044</v>
+        <v>3.794662939253351</v>
       </c>
       <c r="N26" t="n">
-        <v>23.95581787252271</v>
+        <v>24.03846572054942</v>
       </c>
       <c r="O26" t="n">
-        <v>4.894468088824639</v>
+        <v>4.902903804945536</v>
       </c>
       <c r="P26" t="n">
-        <v>373.1664740478643</v>
+        <v>373.2267635076326</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31259,34 +31368,34 @@
         <v>0.055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1511</v>
+        <v>0.1481</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2798767212719792</v>
+        <v>0.2700787733050514</v>
       </c>
       <c r="J27" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K27" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1041494013163572</v>
+        <v>0.09695994644928818</v>
       </c>
       <c r="M27" t="n">
-        <v>4.506167932392314</v>
+        <v>4.539005159482465</v>
       </c>
       <c r="N27" t="n">
-        <v>33.2968686293846</v>
+        <v>33.72892762685336</v>
       </c>
       <c r="O27" t="n">
-        <v>5.770343891778428</v>
+        <v>5.807661115014663</v>
       </c>
       <c r="P27" t="n">
-        <v>372.1976670240442</v>
+        <v>372.3056559731176</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31337,34 +31446,34 @@
         <v>0.05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0388</v>
+        <v>0.0387</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.0771</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2583617296001334</v>
+        <v>0.2525019770589818</v>
       </c>
       <c r="J28" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K28" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06947193832591725</v>
+        <v>0.066811287568602</v>
       </c>
       <c r="M28" t="n">
-        <v>5.348323319290552</v>
+        <v>5.355632839927268</v>
       </c>
       <c r="N28" t="n">
-        <v>43.84349869682434</v>
+        <v>43.87297639320405</v>
       </c>
       <c r="O28" t="n">
-        <v>6.621442342633842</v>
+        <v>6.623667895751119</v>
       </c>
       <c r="P28" t="n">
-        <v>377.4227239769005</v>
+        <v>377.4876724258987</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31415,34 +31524,34 @@
         <v>0.075</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0522</v>
+        <v>0.0524</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1226</v>
+        <v>0.123</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2692658486077323</v>
+        <v>0.2684220205494399</v>
       </c>
       <c r="J29" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K29" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09689507670425324</v>
+        <v>0.09707907097747026</v>
       </c>
       <c r="M29" t="n">
-        <v>4.645720295721131</v>
+        <v>4.632166408684973</v>
       </c>
       <c r="N29" t="n">
-        <v>33.13811699675043</v>
+        <v>33.01477086845996</v>
       </c>
       <c r="O29" t="n">
-        <v>5.756571635683033</v>
+        <v>5.745848141785507</v>
       </c>
       <c r="P29" t="n">
-        <v>388.8491353397316</v>
+        <v>388.8584881789893</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -31497,34 +31606,34 @@
         <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0682</v>
+        <v>0.0683</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1939</v>
+        <v>0.1952</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02232555675301557</v>
+        <v>0.01904962490302249</v>
       </c>
       <c r="J30" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K30" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0004935056090638046</v>
+        <v>0.0003620212240713627</v>
       </c>
       <c r="M30" t="n">
-        <v>5.284941177619477</v>
+        <v>5.279204333814535</v>
       </c>
       <c r="N30" t="n">
-        <v>47.94268368164827</v>
+        <v>47.81586695458208</v>
       </c>
       <c r="O30" t="n">
-        <v>6.924065545735993</v>
+        <v>6.914901803683266</v>
       </c>
       <c r="P30" t="n">
-        <v>397.3009775868861</v>
+        <v>397.3379957627512</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -31566,7 +31675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE263"/>
+  <dimension ref="A1:AE264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72741,6 +72850,163 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>-35.694540906065335,174.5147415614488</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>-35.695260748659045,174.5148977839727</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>-35.695993780468086,174.51477129971605</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>-35.69672091899361,174.51484667994904</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>-35.69742994541501,174.51506229689232</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>-35.698129420034746,174.51531733755212</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>-35.698819829342376,174.51560848824076</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>-35.69949102365966,174.51596474283556</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>-35.70017079870001,174.516285176495</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>-35.70084680785643,174.51662520793477</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>-35.701518477589666,174.5169802410813</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>-35.702191074692934,174.5173073924817</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>-35.70286157127635,174.51763631927696</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>-35.70354568528798,174.51794752452673</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>-35.70420638679114,174.51831879173534</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>-35.704858554599326,174.51868747353683</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>-35.70552217532593,174.51903588884252</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>-35.70616054539061,174.5194496100469</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>-35.70680244689523,174.51986729747819</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>-35.70744008080829,174.52030557023144</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>-35.70806220395188,174.52077340876858</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>-35.708685905225494,174.52123791102056</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>-35.70928711443417,174.52174454694372</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>-35.70989656165978,174.52221761058598</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>-35.71052246300022,174.52267584520527</t>
+        </is>
+      </c>
+      <c r="AA264" t="inlineStr">
+        <is>
+          <t>-35.71112276162348,174.52318894709174</t>
+        </is>
+      </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>-35.711646845273265,174.52381993683008</t>
+        </is>
+      </c>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t>-35.71211845382769,174.5245271458729</t>
+        </is>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>-35.71269193270547,174.52507953148535</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
